--- a/IMPLACAD2020/IMPLACAD.xlsx
+++ b/IMPLACAD2020/IMPLACAD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sclaver/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DESARROLLO\CLIENTES\IMPLASER\IMPLACAD2020\IMPLACAD2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0926611A-0851-4448-841C-6145D3F920C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478655B9-D63D-48EB-8B64-87F053C764B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="960" windowWidth="35840" windowHeight="25480" xr2:uid="{50B2D206-9114-48E8-AB70-CB4338EDC63B}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12768" xr2:uid="{50B2D206-9114-48E8-AB70-CB4338EDC63B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5856" uniqueCount="1270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5824" uniqueCount="1270">
   <si>
     <t>EV08N</t>
   </si>
@@ -4348,24 +4348,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1ED1860-8326-4EFE-BD04-4BD50B5860A5}">
   <dimension ref="A1:J940"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A921" workbookViewId="0">
+      <selection activeCell="D925" sqref="D925:E940"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1247</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1068</v>
       </c>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1070</v>
       </c>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1071</v>
       </c>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1072</v>
       </c>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1074</v>
       </c>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1075</v>
       </c>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>1076</v>
       </c>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1078</v>
       </c>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1079</v>
       </c>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1080</v>
       </c>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1082</v>
       </c>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>1083</v>
       </c>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>1085</v>
       </c>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>1087</v>
       </c>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>1031</v>
       </c>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>1036</v>
       </c>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>1038</v>
       </c>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>1040</v>
       </c>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1042</v>
       </c>
@@ -4967,7 +4967,7 @@
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>1044</v>
       </c>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>1046</v>
       </c>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>1048</v>
       </c>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>1034</v>
       </c>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>1050</v>
       </c>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>1051</v>
       </c>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>1052</v>
       </c>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1054</v>
       </c>
@@ -5207,7 +5207,7 @@
       </c>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>1056</v>
       </c>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>1058</v>
       </c>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>1060</v>
       </c>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>1062</v>
       </c>
@@ -5327,7 +5327,7 @@
       </c>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>1064</v>
       </c>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>1066</v>
       </c>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>1088</v>
       </c>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1090</v>
       </c>
@@ -5447,7 +5447,7 @@
       </c>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>1092</v>
       </c>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>1094</v>
       </c>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>1096</v>
       </c>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>1098</v>
       </c>
@@ -5567,7 +5567,7 @@
       </c>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>1100</v>
       </c>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>1102</v>
       </c>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>1104</v>
       </c>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>1106</v>
       </c>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>1108</v>
       </c>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>1110</v>
       </c>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>1112</v>
       </c>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>1114</v>
       </c>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>1115</v>
       </c>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>1117</v>
       </c>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>1119</v>
       </c>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>1123</v>
       </c>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>1126</v>
       </c>
@@ -5957,7 +5957,7 @@
       </c>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>1127</v>
       </c>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>1128</v>
       </c>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>1129</v>
       </c>
@@ -6047,7 +6047,7 @@
       </c>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>1130</v>
       </c>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>1131</v>
       </c>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>1132</v>
       </c>
@@ -6137,7 +6137,7 @@
       </c>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>921</v>
       </c>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>1133</v>
       </c>
@@ -6197,7 +6197,7 @@
       </c>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>1134</v>
       </c>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>1135</v>
       </c>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>1136</v>
       </c>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>1137</v>
       </c>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>1138</v>
       </c>
@@ -6347,7 +6347,7 @@
       </c>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>1139</v>
       </c>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>1140</v>
       </c>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>1141</v>
       </c>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>1142</v>
       </c>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="J70" s="6"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>1143</v>
       </c>
@@ -6497,7 +6497,7 @@
       </c>
       <c r="J71" s="6"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>1144</v>
       </c>
@@ -6527,7 +6527,7 @@
       </c>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>675</v>
       </c>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>1145</v>
       </c>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>1146</v>
       </c>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="J75" s="6"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>1147</v>
       </c>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="J76" s="6"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>1148</v>
       </c>
@@ -6677,7 +6677,7 @@
       </c>
       <c r="J77" s="6"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>1149</v>
       </c>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="J78" s="6"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>1150</v>
       </c>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="J79" s="6"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>1151</v>
       </c>
@@ -6767,7 +6767,7 @@
       </c>
       <c r="J80" s="6"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>1152</v>
       </c>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="J81" s="6"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>1153</v>
       </c>
@@ -6827,7 +6827,7 @@
       </c>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>1154</v>
       </c>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="J83" s="6"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>1155</v>
       </c>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="J84" s="6"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>1157</v>
       </c>
@@ -6917,7 +6917,7 @@
       </c>
       <c r="J85" s="6"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>1158</v>
       </c>
@@ -6947,7 +6947,7 @@
       </c>
       <c r="J86" s="6"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>1159</v>
       </c>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>1160</v>
       </c>
@@ -7007,7 +7007,7 @@
       </c>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>1167</v>
       </c>
@@ -7037,7 +7037,7 @@
       </c>
       <c r="J89" s="6"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>1161</v>
       </c>
@@ -7067,7 +7067,7 @@
       </c>
       <c r="J90" s="6"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>1162</v>
       </c>
@@ -7097,7 +7097,7 @@
       </c>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>1163</v>
       </c>
@@ -7127,7 +7127,7 @@
       </c>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>1164</v>
       </c>
@@ -7157,7 +7157,7 @@
       </c>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>1165</v>
       </c>
@@ -7187,7 +7187,7 @@
       </c>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>1166</v>
       </c>
@@ -7217,7 +7217,7 @@
       </c>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>1168</v>
       </c>
@@ -7247,7 +7247,7 @@
       </c>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>1170</v>
       </c>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="J97" s="6"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>1171</v>
       </c>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="J98" s="6"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>1172</v>
       </c>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="J99" s="6"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>1173</v>
       </c>
@@ -7367,7 +7367,7 @@
       </c>
       <c r="J100" s="6"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>1174</v>
       </c>
@@ -7397,7 +7397,7 @@
       </c>
       <c r="J101" s="6"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>1175</v>
       </c>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="J102" s="6"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>1176</v>
       </c>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>1177</v>
       </c>
@@ -7487,7 +7487,7 @@
       </c>
       <c r="J104" s="6"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>1178</v>
       </c>
@@ -7517,7 +7517,7 @@
       </c>
       <c r="J105" s="6"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>1179</v>
       </c>
@@ -7547,7 +7547,7 @@
       </c>
       <c r="J106" s="6"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>1217</v>
       </c>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="J107" s="6"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>1219</v>
       </c>
@@ -7607,7 +7607,7 @@
       </c>
       <c r="J108" s="6"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>1220</v>
       </c>
@@ -7637,7 +7637,7 @@
       </c>
       <c r="J109" s="6"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>1221</v>
       </c>
@@ -7667,7 +7667,7 @@
       </c>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>1222</v>
       </c>
@@ -7697,7 +7697,7 @@
       </c>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>1121</v>
       </c>
@@ -7727,7 +7727,7 @@
       </c>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -7757,7 +7757,7 @@
       </c>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>6</v>
       </c>
@@ -7787,7 +7787,7 @@
       </c>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>9</v>
       </c>
@@ -7817,7 +7817,7 @@
       </c>
       <c r="J115" s="1"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>11</v>
       </c>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="J116" s="1"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>13</v>
       </c>
@@ -7877,7 +7877,7 @@
       </c>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>14</v>
       </c>
@@ -7907,7 +7907,7 @@
       </c>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>15</v>
       </c>
@@ -7937,7 +7937,7 @@
       </c>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>16</v>
       </c>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>19</v>
       </c>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>22</v>
       </c>
@@ -8027,7 +8027,7 @@
       </c>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>25</v>
       </c>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>26</v>
       </c>
@@ -8087,7 +8087,7 @@
       </c>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>27</v>
       </c>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>28</v>
       </c>
@@ -8147,7 +8147,7 @@
       </c>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>29</v>
       </c>
@@ -8177,7 +8177,7 @@
       </c>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>30</v>
       </c>
@@ -8207,7 +8207,7 @@
       </c>
       <c r="J128" s="1"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>31</v>
       </c>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="J129" s="1"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>32</v>
       </c>
@@ -8267,7 +8267,7 @@
       </c>
       <c r="J130" s="1"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>33</v>
       </c>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="J131" s="1"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>34</v>
       </c>
@@ -8327,7 +8327,7 @@
       </c>
       <c r="J132" s="1"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>36</v>
       </c>
@@ -8357,7 +8357,7 @@
       </c>
       <c r="J133" s="1"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>37</v>
       </c>
@@ -8387,7 +8387,7 @@
       </c>
       <c r="J134" s="1"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>38</v>
       </c>
@@ -8417,7 +8417,7 @@
       </c>
       <c r="J135" s="1"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>39</v>
       </c>
@@ -8447,7 +8447,7 @@
       </c>
       <c r="J136" s="1"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>40</v>
       </c>
@@ -8477,7 +8477,7 @@
       </c>
       <c r="J137" s="1"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>41</v>
       </c>
@@ -8507,7 +8507,7 @@
       </c>
       <c r="J138" s="1"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>43</v>
       </c>
@@ -8537,7 +8537,7 @@
       </c>
       <c r="J139" s="1"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>45</v>
       </c>
@@ -8567,7 +8567,7 @@
       </c>
       <c r="J140" s="1"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>46</v>
       </c>
@@ -8597,7 +8597,7 @@
       </c>
       <c r="J141" s="1"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>47</v>
       </c>
@@ -8627,7 +8627,7 @@
       </c>
       <c r="J142" s="1"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>49</v>
       </c>
@@ -8657,7 +8657,7 @@
       </c>
       <c r="J143" s="1"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>771</v>
       </c>
@@ -8687,7 +8687,7 @@
       </c>
       <c r="J144" s="6"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>977</v>
       </c>
@@ -8717,7 +8717,7 @@
       </c>
       <c r="J145" s="6"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>523</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>525</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>773</v>
       </c>
@@ -8811,7 +8811,7 @@
       </c>
       <c r="J148" s="1"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>820</v>
       </c>
@@ -8841,7 +8841,7 @@
       </c>
       <c r="J149" s="1"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>821</v>
       </c>
@@ -8871,7 +8871,7 @@
       </c>
       <c r="J150" s="1"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>51</v>
       </c>
@@ -8901,7 +8901,7 @@
       </c>
       <c r="J151" s="1"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>53</v>
       </c>
@@ -8931,7 +8931,7 @@
       </c>
       <c r="J152" s="1"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>978</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>556</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>617</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>774</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>838</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>871</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>776</v>
       </c>
@@ -9153,7 +9153,7 @@
       </c>
       <c r="J159" s="1"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>501</v>
       </c>
@@ -9183,7 +9183,7 @@
       </c>
       <c r="J160" s="1"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>979</v>
       </c>
@@ -9213,7 +9213,7 @@
       </c>
       <c r="J161" s="6"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>55</v>
       </c>
@@ -9243,7 +9243,7 @@
       </c>
       <c r="J162" s="1"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>57</v>
       </c>
@@ -9273,7 +9273,7 @@
       </c>
       <c r="J163" s="1"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>778</v>
       </c>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="J164" s="6"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>980</v>
       </c>
@@ -9333,7 +9333,7 @@
       </c>
       <c r="J165" s="1"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>558</v>
       </c>
@@ -9363,7 +9363,7 @@
       </c>
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>619</v>
       </c>
@@ -9393,7 +9393,7 @@
       </c>
       <c r="J167" s="1"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>779</v>
       </c>
@@ -9423,7 +9423,7 @@
       </c>
       <c r="J168" s="1"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>839</v>
       </c>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="J169" s="1"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>872</v>
       </c>
@@ -9483,7 +9483,7 @@
       </c>
       <c r="J170" s="1"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>981</v>
       </c>
@@ -9513,7 +9513,7 @@
       </c>
       <c r="J171" s="6"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>560</v>
       </c>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="J172" s="6"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>621</v>
       </c>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="J173" s="6"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>781</v>
       </c>
@@ -9603,7 +9603,7 @@
       </c>
       <c r="J174" s="6"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>840</v>
       </c>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="J175" s="6"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>873</v>
       </c>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="J176" s="6"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>59</v>
       </c>
@@ -9693,7 +9693,7 @@
       </c>
       <c r="J177" s="1"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>60</v>
       </c>
@@ -9723,7 +9723,7 @@
       </c>
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>783</v>
       </c>
@@ -9753,7 +9753,7 @@
       </c>
       <c r="J179" s="6"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>785</v>
       </c>
@@ -9783,7 +9783,7 @@
       </c>
       <c r="J180" s="6"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>787</v>
       </c>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="J181" s="6"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>502</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>535</v>
       </c>
@@ -9877,7 +9877,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>605</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>747</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>826</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>853</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>592</v>
       </c>
@@ -10037,7 +10037,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>645</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>982</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>562</v>
       </c>
@@ -10133,7 +10133,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>623</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>789</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>841</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>874</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>975</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>553</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>615</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>767</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>836</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>863</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>504</v>
       </c>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="J202" s="1"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>537</v>
       </c>
@@ -10513,7 +10513,7 @@
       </c>
       <c r="J203" s="1"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>607</v>
       </c>
@@ -10543,7 +10543,7 @@
       </c>
       <c r="J204" s="1"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>748</v>
       </c>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="J205" s="1"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>827</v>
       </c>
@@ -10603,7 +10603,7 @@
       </c>
       <c r="J206" s="1"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>854</v>
       </c>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="J207" s="1"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>521</v>
       </c>
@@ -10663,7 +10663,7 @@
       </c>
       <c r="J208" s="1"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>642</v>
       </c>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="J209" s="1"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>594</v>
       </c>
@@ -10723,7 +10723,7 @@
       </c>
       <c r="J210" s="1"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>646</v>
       </c>
@@ -10753,7 +10753,7 @@
       </c>
       <c r="J211" s="1"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>983</v>
       </c>
@@ -10783,7 +10783,7 @@
       </c>
       <c r="J212" s="1"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>563</v>
       </c>
@@ -10813,7 +10813,7 @@
       </c>
       <c r="J213" s="1"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>624</v>
       </c>
@@ -10843,7 +10843,7 @@
       </c>
       <c r="J214" s="1"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>790</v>
       </c>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="J215" s="1"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>842</v>
       </c>
@@ -10903,7 +10903,7 @@
       </c>
       <c r="J216" s="1"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>875</v>
       </c>
@@ -10933,7 +10933,7 @@
       </c>
       <c r="J217" s="1"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>864</v>
       </c>
@@ -10963,7 +10963,7 @@
       </c>
       <c r="J218" s="1"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>505</v>
       </c>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="J219" s="1"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>538</v>
       </c>
@@ -11023,7 +11023,7 @@
       </c>
       <c r="J220" s="1"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>608</v>
       </c>
@@ -11053,7 +11053,7 @@
       </c>
       <c r="J221" s="1"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>749</v>
       </c>
@@ -11083,7 +11083,7 @@
       </c>
       <c r="J222" s="1"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>828</v>
       </c>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="J223" s="1"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>855</v>
       </c>
@@ -11143,7 +11143,7 @@
       </c>
       <c r="J224" s="1"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>595</v>
       </c>
@@ -11173,7 +11173,7 @@
       </c>
       <c r="J225" s="1"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>647</v>
       </c>
@@ -11203,7 +11203,7 @@
       </c>
       <c r="J226" s="1"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>984</v>
       </c>
@@ -11233,7 +11233,7 @@
       </c>
       <c r="J227" s="1"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>564</v>
       </c>
@@ -11263,7 +11263,7 @@
       </c>
       <c r="J228" s="1"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>625</v>
       </c>
@@ -11293,7 +11293,7 @@
       </c>
       <c r="J229" s="1"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>791</v>
       </c>
@@ -11323,7 +11323,7 @@
       </c>
       <c r="J230" s="1"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>843</v>
       </c>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="J231" s="1"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>876</v>
       </c>
@@ -11383,7 +11383,7 @@
       </c>
       <c r="J232" s="1"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>865</v>
       </c>
@@ -11413,7 +11413,7 @@
       </c>
       <c r="J233" s="1"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>596</v>
       </c>
@@ -11443,7 +11443,7 @@
       </c>
       <c r="J234" s="1"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>648</v>
       </c>
@@ -11473,7 +11473,7 @@
       </c>
       <c r="J235" s="1"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>985</v>
       </c>
@@ -11503,7 +11503,7 @@
       </c>
       <c r="J236" s="1"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>565</v>
       </c>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="J237" s="1"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>626</v>
       </c>
@@ -11563,7 +11563,7 @@
       </c>
       <c r="J238" s="1"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>792</v>
       </c>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="J239" s="1"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>844</v>
       </c>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="J240" s="1"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>877</v>
       </c>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="J241" s="1"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>506</v>
       </c>
@@ -11683,7 +11683,7 @@
       </c>
       <c r="J242" s="1"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>539</v>
       </c>
@@ -11713,7 +11713,7 @@
       </c>
       <c r="J243" s="1"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>750</v>
       </c>
@@ -11743,7 +11743,7 @@
       </c>
       <c r="J244" s="1"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>829</v>
       </c>
@@ -11773,7 +11773,7 @@
       </c>
       <c r="J245" s="1"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>586</v>
       </c>
@@ -11803,7 +11803,7 @@
       </c>
       <c r="J246" s="1"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>643</v>
       </c>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="J247" s="1"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>597</v>
       </c>
@@ -11863,7 +11863,7 @@
       </c>
       <c r="J248" s="1"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>649</v>
       </c>
@@ -11893,7 +11893,7 @@
       </c>
       <c r="J249" s="1"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>986</v>
       </c>
@@ -11923,7 +11923,7 @@
       </c>
       <c r="J250" s="1"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>793</v>
       </c>
@@ -11953,7 +11953,7 @@
       </c>
       <c r="J251" s="1"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>508</v>
       </c>
@@ -11983,7 +11983,7 @@
       </c>
       <c r="J252" s="1"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>541</v>
       </c>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="J253" s="1"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>751</v>
       </c>
@@ -12043,7 +12043,7 @@
       </c>
       <c r="J254" s="1"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>830</v>
       </c>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="J255" s="1"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>598</v>
       </c>
@@ -12103,7 +12103,7 @@
       </c>
       <c r="J256" s="1"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>650</v>
       </c>
@@ -12133,7 +12133,7 @@
       </c>
       <c r="J257" s="1"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>987</v>
       </c>
@@ -12163,7 +12163,7 @@
       </c>
       <c r="J258" s="1"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>794</v>
       </c>
@@ -12193,7 +12193,7 @@
       </c>
       <c r="J259" s="1"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>61</v>
       </c>
@@ -12223,7 +12223,7 @@
       </c>
       <c r="J260" s="1"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>510</v>
       </c>
@@ -12253,7 +12253,7 @@
       </c>
       <c r="J261" s="1"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>543</v>
       </c>
@@ -12283,7 +12283,7 @@
       </c>
       <c r="J262" s="1"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>752</v>
       </c>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="J263" s="1"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>831</v>
       </c>
@@ -12343,7 +12343,7 @@
       </c>
       <c r="J264" s="1"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>590</v>
       </c>
@@ -12373,7 +12373,7 @@
       </c>
       <c r="J265" s="1"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>644</v>
       </c>
@@ -12403,7 +12403,7 @@
       </c>
       <c r="J266" s="1"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>599</v>
       </c>
@@ -12433,7 +12433,7 @@
       </c>
       <c r="J267" s="1"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>651</v>
       </c>
@@ -12463,7 +12463,7 @@
       </c>
       <c r="J268" s="1"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>988</v>
       </c>
@@ -12493,7 +12493,7 @@
       </c>
       <c r="J269" s="1"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>795</v>
       </c>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="J270" s="1"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>588</v>
       </c>
@@ -12553,7 +12553,7 @@
       </c>
       <c r="J271" s="1"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>545</v>
       </c>
@@ -12583,7 +12583,7 @@
       </c>
       <c r="J272" s="1"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>753</v>
       </c>
@@ -12613,7 +12613,7 @@
       </c>
       <c r="J273" s="1"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>832</v>
       </c>
@@ -12643,7 +12643,7 @@
       </c>
       <c r="J274" s="1"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>600</v>
       </c>
@@ -12673,7 +12673,7 @@
       </c>
       <c r="J275" s="1"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>652</v>
       </c>
@@ -12703,7 +12703,7 @@
       </c>
       <c r="J276" s="1"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>989</v>
       </c>
@@ -12733,7 +12733,7 @@
       </c>
       <c r="J277" s="1"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>796</v>
       </c>
@@ -12763,7 +12763,7 @@
       </c>
       <c r="J278" s="1"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>754</v>
       </c>
@@ -12793,7 +12793,7 @@
       </c>
       <c r="J279" s="1"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>756</v>
       </c>
@@ -12823,7 +12823,7 @@
       </c>
       <c r="J280" s="1"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>990</v>
       </c>
@@ -12853,7 +12853,7 @@
       </c>
       <c r="J281" s="1"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>991</v>
       </c>
@@ -12883,7 +12883,7 @@
       </c>
       <c r="J282" s="1"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>566</v>
       </c>
@@ -12913,7 +12913,7 @@
       </c>
       <c r="J283" s="4"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>568</v>
       </c>
@@ -12943,7 +12943,7 @@
       </c>
       <c r="J284" s="4"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>627</v>
       </c>
@@ -12973,7 +12973,7 @@
       </c>
       <c r="J285" s="1"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>629</v>
       </c>
@@ -13003,7 +13003,7 @@
       </c>
       <c r="J286" s="1"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>797</v>
       </c>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="J287" s="1"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>798</v>
       </c>
@@ -13063,7 +13063,7 @@
       </c>
       <c r="J288" s="1"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>878</v>
       </c>
@@ -13093,7 +13093,7 @@
       </c>
       <c r="J289" s="1"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>879</v>
       </c>
@@ -13123,7 +13123,7 @@
       </c>
       <c r="J290" s="1"/>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>992</v>
       </c>
@@ -13153,7 +13153,7 @@
       </c>
       <c r="J291" s="1"/>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>993</v>
       </c>
@@ -13183,7 +13183,7 @@
       </c>
       <c r="J292" s="1"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>570</v>
       </c>
@@ -13213,7 +13213,7 @@
       </c>
       <c r="J293" s="4"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>572</v>
       </c>
@@ -13243,7 +13243,7 @@
       </c>
       <c r="J294" s="4"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>631</v>
       </c>
@@ -13273,7 +13273,7 @@
       </c>
       <c r="J295" s="1"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>633</v>
       </c>
@@ -13303,7 +13303,7 @@
       </c>
       <c r="J296" s="1"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>799</v>
       </c>
@@ -13333,7 +13333,7 @@
       </c>
       <c r="J297" s="1"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>801</v>
       </c>
@@ -13363,7 +13363,7 @@
       </c>
       <c r="J298" s="1"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>880</v>
       </c>
@@ -13393,7 +13393,7 @@
       </c>
       <c r="J299" s="1"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>881</v>
       </c>
@@ -13423,7 +13423,7 @@
       </c>
       <c r="J300" s="1"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>758</v>
       </c>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="J301" s="1"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>760</v>
       </c>
@@ -13483,7 +13483,7 @@
       </c>
       <c r="J302" s="1"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>994</v>
       </c>
@@ -13513,7 +13513,7 @@
       </c>
       <c r="J303" s="1"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>995</v>
       </c>
@@ -13543,7 +13543,7 @@
       </c>
       <c r="J304" s="1"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>574</v>
       </c>
@@ -13573,7 +13573,7 @@
       </c>
       <c r="J305" s="4"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>576</v>
       </c>
@@ -13603,7 +13603,7 @@
       </c>
       <c r="J306" s="4"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>635</v>
       </c>
@@ -13633,7 +13633,7 @@
       </c>
       <c r="J307" s="1"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>637</v>
       </c>
@@ -13663,7 +13663,7 @@
       </c>
       <c r="J308" s="1"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>803</v>
       </c>
@@ -13693,7 +13693,7 @@
       </c>
       <c r="J309" s="1"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>804</v>
       </c>
@@ -13723,7 +13723,7 @@
       </c>
       <c r="J310" s="1"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>882</v>
       </c>
@@ -13753,7 +13753,7 @@
       </c>
       <c r="J311" s="1"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>883</v>
       </c>
@@ -13783,7 +13783,7 @@
       </c>
       <c r="J312" s="1"/>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>996</v>
       </c>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="J313" s="1"/>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>997</v>
       </c>
@@ -13843,7 +13843,7 @@
       </c>
       <c r="J314" s="1"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>578</v>
       </c>
@@ -13873,7 +13873,7 @@
       </c>
       <c r="J315" s="4"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>580</v>
       </c>
@@ -13903,7 +13903,7 @@
       </c>
       <c r="J316" s="1"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>638</v>
       </c>
@@ -13933,7 +13933,7 @@
       </c>
       <c r="J317" s="1"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>640</v>
       </c>
@@ -13963,7 +13963,7 @@
       </c>
       <c r="J318" s="1"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>805</v>
       </c>
@@ -13993,7 +13993,7 @@
       </c>
       <c r="J319" s="1"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>807</v>
       </c>
@@ -14023,7 +14023,7 @@
       </c>
       <c r="J320" s="1"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>885</v>
       </c>
@@ -14053,7 +14053,7 @@
       </c>
       <c r="J321" s="1"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>886</v>
       </c>
@@ -14083,7 +14083,7 @@
       </c>
       <c r="J322" s="1"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>762</v>
       </c>
@@ -14115,7 +14115,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>856</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>653</v>
       </c>
@@ -14179,7 +14179,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>809</v>
       </c>
@@ -14211,7 +14211,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>845</v>
       </c>
@@ -14243,7 +14243,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>887</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>866</v>
       </c>
@@ -14307,7 +14307,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>513</v>
       </c>
@@ -14339,7 +14339,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>547</v>
       </c>
@@ -14371,7 +14371,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>609</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>763</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>833</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>858</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>601</v>
       </c>
@@ -14531,7 +14531,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>655</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>998</v>
       </c>
@@ -14595,7 +14595,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>582</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>661</v>
       </c>
@@ -14659,7 +14659,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>810</v>
       </c>
@@ -14691,7 +14691,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>847</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>888</v>
       </c>
@@ -14755,7 +14755,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>976</v>
       </c>
@@ -14787,7 +14787,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>554</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>616</v>
       </c>
@@ -14851,7 +14851,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>768</v>
       </c>
@@ -14883,7 +14883,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>837</v>
       </c>
@@ -14915,7 +14915,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>867</v>
       </c>
@@ -14947,7 +14947,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>602</v>
       </c>
@@ -14979,7 +14979,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>656</v>
       </c>
@@ -15011,7 +15011,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>999</v>
       </c>
@@ -15043,7 +15043,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>583</v>
       </c>
@@ -15075,7 +15075,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>662</v>
       </c>
@@ -15107,7 +15107,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>811</v>
       </c>
@@ -15139,7 +15139,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>848</v>
       </c>
@@ -15171,7 +15171,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>889</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>62</v>
       </c>
@@ -15233,7 +15233,7 @@
       </c>
       <c r="J358" s="1"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>64</v>
       </c>
@@ -15263,7 +15263,7 @@
       </c>
       <c r="J359" s="1"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>66</v>
       </c>
@@ -15293,7 +15293,7 @@
       </c>
       <c r="J360" s="1"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>68</v>
       </c>
@@ -15323,7 +15323,7 @@
       </c>
       <c r="J361" s="1"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>69</v>
       </c>
@@ -15353,7 +15353,7 @@
       </c>
       <c r="J362" s="1"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>70</v>
       </c>
@@ -15383,7 +15383,7 @@
       </c>
       <c r="J363" s="1"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>764</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>859</v>
       </c>
@@ -15447,7 +15447,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>657</v>
       </c>
@@ -15479,7 +15479,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>812</v>
       </c>
@@ -15511,7 +15511,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>849</v>
       </c>
@@ -15543,7 +15543,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>890</v>
       </c>
@@ -15575,7 +15575,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>868</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>813</v>
       </c>
@@ -15639,7 +15639,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>815</v>
       </c>
@@ -15671,7 +15671,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>71</v>
       </c>
@@ -15701,7 +15701,7 @@
       </c>
       <c r="J373" s="1"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>73</v>
       </c>
@@ -15731,7 +15731,7 @@
       </c>
       <c r="J374" s="1"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>75</v>
       </c>
@@ -15761,7 +15761,7 @@
       </c>
       <c r="J375" s="1"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>77</v>
       </c>
@@ -15791,7 +15791,7 @@
       </c>
       <c r="J376" s="1"/>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>78</v>
       </c>
@@ -15821,7 +15821,7 @@
       </c>
       <c r="J377" s="1"/>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>79</v>
       </c>
@@ -15851,7 +15851,7 @@
       </c>
       <c r="J378" s="1"/>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>515</v>
       </c>
@@ -15883,7 +15883,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>549</v>
       </c>
@@ -15915,7 +15915,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>611</v>
       </c>
@@ -15947,7 +15947,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>765</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>834</v>
       </c>
@@ -16011,7 +16011,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>861</v>
       </c>
@@ -16043,7 +16043,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>603</v>
       </c>
@@ -16075,7 +16075,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>659</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>1000</v>
       </c>
@@ -16139,7 +16139,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>584</v>
       </c>
@@ -16171,7 +16171,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>663</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>527</v>
       </c>
@@ -16235,7 +16235,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>529</v>
       </c>
@@ -16267,7 +16267,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>817</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>851</v>
       </c>
@@ -16331,7 +16331,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>891</v>
       </c>
@@ -16363,7 +16363,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>822</v>
       </c>
@@ -16395,7 +16395,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>823</v>
       </c>
@@ -16427,7 +16427,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>769</v>
       </c>
@@ -16459,7 +16459,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>869</v>
       </c>
@@ -16491,7 +16491,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>517</v>
       </c>
@@ -16523,7 +16523,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>551</v>
       </c>
@@ -16555,7 +16555,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>613</v>
       </c>
@@ -16587,7 +16587,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>766</v>
       </c>
@@ -16619,7 +16619,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>835</v>
       </c>
@@ -16651,7 +16651,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>862</v>
       </c>
@@ -16683,7 +16683,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>604</v>
       </c>
@@ -16715,7 +16715,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>660</v>
       </c>
@@ -16747,7 +16747,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>1001</v>
       </c>
@@ -16779,7 +16779,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>585</v>
       </c>
@@ -16811,7 +16811,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>664</v>
       </c>
@@ -16843,7 +16843,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>531</v>
       </c>
@@ -16875,7 +16875,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>533</v>
       </c>
@@ -16907,7 +16907,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>818</v>
       </c>
@@ -16939,7 +16939,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>852</v>
       </c>
@@ -16971,7 +16971,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>892</v>
       </c>
@@ -17003,7 +17003,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>824</v>
       </c>
@@ -17035,7 +17035,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>825</v>
       </c>
@@ -17067,7 +17067,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>770</v>
       </c>
@@ -17099,7 +17099,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>870</v>
       </c>
@@ -17131,7 +17131,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>519</v>
       </c>
@@ -17161,7 +17161,7 @@
       </c>
       <c r="J419" s="1"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>1002</v>
       </c>
@@ -17191,7 +17191,7 @@
       </c>
       <c r="J420" s="5"/>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>819</v>
       </c>
@@ -17221,7 +17221,7 @@
       </c>
       <c r="J421" s="5"/>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>80</v>
       </c>
@@ -17251,7 +17251,7 @@
       </c>
       <c r="J422" s="5"/>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>82</v>
       </c>
@@ -17281,7 +17281,7 @@
       </c>
       <c r="J423" s="5"/>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>84</v>
       </c>
@@ -17311,7 +17311,7 @@
       </c>
       <c r="J424" s="5"/>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>86</v>
       </c>
@@ -17341,7 +17341,7 @@
       </c>
       <c r="J425" s="1"/>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>88</v>
       </c>
@@ -17371,7 +17371,7 @@
       </c>
       <c r="J426" s="1"/>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>90</v>
       </c>
@@ -17401,7 +17401,7 @@
       </c>
       <c r="J427" s="5"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>92</v>
       </c>
@@ -17431,7 +17431,7 @@
       </c>
       <c r="J428" s="5"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>93</v>
       </c>
@@ -17461,7 +17461,7 @@
       </c>
       <c r="J429" s="5"/>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>94</v>
       </c>
@@ -17491,7 +17491,7 @@
       </c>
       <c r="J430" s="5"/>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>95</v>
       </c>
@@ -17521,7 +17521,7 @@
       </c>
       <c r="J431" s="5"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>96</v>
       </c>
@@ -17551,7 +17551,7 @@
       </c>
       <c r="J432" s="1"/>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>97</v>
       </c>
@@ -17581,7 +17581,7 @@
       </c>
       <c r="J433" s="1"/>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>98</v>
       </c>
@@ -17611,7 +17611,7 @@
       </c>
       <c r="J434" s="1"/>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>99</v>
       </c>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="J435" s="5"/>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>100</v>
       </c>
@@ -17671,7 +17671,7 @@
       </c>
       <c r="J436" s="1"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>101</v>
       </c>
@@ -17701,7 +17701,7 @@
       </c>
       <c r="J437" s="1"/>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>102</v>
       </c>
@@ -17731,7 +17731,7 @@
       </c>
       <c r="J438" s="1"/>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>103</v>
       </c>
@@ -17761,7 +17761,7 @@
       </c>
       <c r="J439" s="1"/>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>104</v>
       </c>
@@ -17791,7 +17791,7 @@
       </c>
       <c r="J440" s="1"/>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>105</v>
       </c>
@@ -17821,7 +17821,7 @@
       </c>
       <c r="J441" s="1"/>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>106</v>
       </c>
@@ -17851,7 +17851,7 @@
       </c>
       <c r="J442" s="1"/>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>107</v>
       </c>
@@ -17881,7 +17881,7 @@
       </c>
       <c r="J443" s="1"/>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>109</v>
       </c>
@@ -17911,7 +17911,7 @@
       </c>
       <c r="J444" s="1"/>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>110</v>
       </c>
@@ -17941,7 +17941,7 @@
       </c>
       <c r="J445" s="1"/>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>112</v>
       </c>
@@ -17971,7 +17971,7 @@
       </c>
       <c r="J446" s="1"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>113</v>
       </c>
@@ -18001,7 +18001,7 @@
       </c>
       <c r="J447" s="1"/>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>115</v>
       </c>
@@ -18031,7 +18031,7 @@
       </c>
       <c r="J448" s="1"/>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>117</v>
       </c>
@@ -18061,7 +18061,7 @@
       </c>
       <c r="J449" s="1"/>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>118</v>
       </c>
@@ -18091,7 +18091,7 @@
       </c>
       <c r="J450" s="5"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>119</v>
       </c>
@@ -18121,7 +18121,7 @@
       </c>
       <c r="J451" s="1"/>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>121</v>
       </c>
@@ -18151,7 +18151,7 @@
       </c>
       <c r="J452" s="1"/>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>122</v>
       </c>
@@ -18181,7 +18181,7 @@
       </c>
       <c r="J453" s="1"/>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>123</v>
       </c>
@@ -18211,7 +18211,7 @@
       </c>
       <c r="J454" s="1"/>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>124</v>
       </c>
@@ -18241,7 +18241,7 @@
       </c>
       <c r="J455" s="1"/>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>126</v>
       </c>
@@ -18271,7 +18271,7 @@
       </c>
       <c r="J456" s="1"/>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>127</v>
       </c>
@@ -18301,7 +18301,7 @@
       </c>
       <c r="J457" s="1"/>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>128</v>
       </c>
@@ -18331,7 +18331,7 @@
       </c>
       <c r="J458" s="5"/>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>130</v>
       </c>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="J459" s="5"/>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>132</v>
       </c>
@@ -18391,7 +18391,7 @@
       </c>
       <c r="J460" s="5"/>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>134</v>
       </c>
@@ -18421,7 +18421,7 @@
       </c>
       <c r="J461" s="5"/>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>135</v>
       </c>
@@ -18451,7 +18451,7 @@
       </c>
       <c r="J462" s="5"/>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>136</v>
       </c>
@@ -18481,7 +18481,7 @@
       </c>
       <c r="J463" s="5"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>137</v>
       </c>
@@ -18511,7 +18511,7 @@
       </c>
       <c r="J464" s="5"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>138</v>
       </c>
@@ -18541,7 +18541,7 @@
       </c>
       <c r="J465" s="5"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>139</v>
       </c>
@@ -18571,7 +18571,7 @@
       </c>
       <c r="J466" s="5"/>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>140</v>
       </c>
@@ -18601,7 +18601,7 @@
       </c>
       <c r="J467" s="5"/>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>142</v>
       </c>
@@ -18631,7 +18631,7 @@
       </c>
       <c r="J468" s="1"/>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>143</v>
       </c>
@@ -18661,7 +18661,7 @@
       </c>
       <c r="J469" s="1"/>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>144</v>
       </c>
@@ -18691,7 +18691,7 @@
       </c>
       <c r="J470" s="1"/>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>145</v>
       </c>
@@ -18721,7 +18721,7 @@
       </c>
       <c r="J471" s="1"/>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>147</v>
       </c>
@@ -18751,7 +18751,7 @@
       </c>
       <c r="J472" s="1"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>149</v>
       </c>
@@ -18781,7 +18781,7 @@
       </c>
       <c r="J473" s="1"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>151</v>
       </c>
@@ -18811,7 +18811,7 @@
       </c>
       <c r="J474" s="1"/>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>152</v>
       </c>
@@ -18841,7 +18841,7 @@
       </c>
       <c r="J475" s="1"/>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>153</v>
       </c>
@@ -18871,7 +18871,7 @@
       </c>
       <c r="J476" s="1"/>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>154</v>
       </c>
@@ -18901,7 +18901,7 @@
       </c>
       <c r="J477" s="1"/>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>156</v>
       </c>
@@ -18931,7 +18931,7 @@
       </c>
       <c r="J478" s="1"/>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>157</v>
       </c>
@@ -18961,7 +18961,7 @@
       </c>
       <c r="J479" s="1"/>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>158</v>
       </c>
@@ -18991,7 +18991,7 @@
       </c>
       <c r="J480" s="1"/>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>159</v>
       </c>
@@ -19021,7 +19021,7 @@
       </c>
       <c r="J481" s="1"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>160</v>
       </c>
@@ -19051,7 +19051,7 @@
       </c>
       <c r="J482" s="1"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>161</v>
       </c>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="J483" s="1"/>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>163</v>
       </c>
@@ -19111,7 +19111,7 @@
       </c>
       <c r="J484" s="1"/>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>164</v>
       </c>
@@ -19141,7 +19141,7 @@
       </c>
       <c r="J485" s="1"/>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>165</v>
       </c>
@@ -19171,7 +19171,7 @@
       </c>
       <c r="J486" s="1"/>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>166</v>
       </c>
@@ -19201,7 +19201,7 @@
       </c>
       <c r="J487" s="1"/>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>167</v>
       </c>
@@ -19231,7 +19231,7 @@
       </c>
       <c r="J488" s="1"/>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>168</v>
       </c>
@@ -19261,7 +19261,7 @@
       </c>
       <c r="J489" s="1"/>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>170</v>
       </c>
@@ -19291,7 +19291,7 @@
       </c>
       <c r="J490" s="1"/>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>171</v>
       </c>
@@ -19321,7 +19321,7 @@
       </c>
       <c r="J491" s="1"/>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>172</v>
       </c>
@@ -19351,7 +19351,7 @@
       </c>
       <c r="J492" s="1"/>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>173</v>
       </c>
@@ -19381,7 +19381,7 @@
       </c>
       <c r="J493" s="1"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>174</v>
       </c>
@@ -19411,7 +19411,7 @@
       </c>
       <c r="J494" s="1"/>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>175</v>
       </c>
@@ -19441,7 +19441,7 @@
       </c>
       <c r="J495" s="1"/>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>177</v>
       </c>
@@ -19471,7 +19471,7 @@
       </c>
       <c r="J496" s="1"/>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>178</v>
       </c>
@@ -19501,7 +19501,7 @@
       </c>
       <c r="J497" s="1"/>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>179</v>
       </c>
@@ -19531,7 +19531,7 @@
       </c>
       <c r="J498" s="1"/>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>180</v>
       </c>
@@ -19561,7 +19561,7 @@
       </c>
       <c r="J499" s="1"/>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>181</v>
       </c>
@@ -19591,7 +19591,7 @@
       </c>
       <c r="J500" s="1"/>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>182</v>
       </c>
@@ -19621,7 +19621,7 @@
       </c>
       <c r="J501" s="1"/>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>184</v>
       </c>
@@ -19651,7 +19651,7 @@
       </c>
       <c r="J502" s="1"/>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>185</v>
       </c>
@@ -19681,7 +19681,7 @@
       </c>
       <c r="J503" s="1"/>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>186</v>
       </c>
@@ -19711,7 +19711,7 @@
       </c>
       <c r="J504" s="1"/>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>188</v>
       </c>
@@ -19741,7 +19741,7 @@
       </c>
       <c r="J505" s="1"/>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>189</v>
       </c>
@@ -19771,7 +19771,7 @@
       </c>
       <c r="J506" s="1"/>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>190</v>
       </c>
@@ -19801,7 +19801,7 @@
       </c>
       <c r="J507" s="1"/>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>192</v>
       </c>
@@ -19831,7 +19831,7 @@
       </c>
       <c r="J508" s="1"/>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>193</v>
       </c>
@@ -19861,7 +19861,7 @@
       </c>
       <c r="J509" s="1"/>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>194</v>
       </c>
@@ -19891,7 +19891,7 @@
       </c>
       <c r="J510" s="1"/>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>196</v>
       </c>
@@ -19921,7 +19921,7 @@
       </c>
       <c r="J511" s="1"/>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>197</v>
       </c>
@@ -19951,7 +19951,7 @@
       </c>
       <c r="J512" s="1"/>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>198</v>
       </c>
@@ -19981,7 +19981,7 @@
       </c>
       <c r="J513" s="1"/>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>200</v>
       </c>
@@ -20011,7 +20011,7 @@
       </c>
       <c r="J514" s="1"/>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>202</v>
       </c>
@@ -20041,7 +20041,7 @@
       </c>
       <c r="J515" s="1"/>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>204</v>
       </c>
@@ -20071,7 +20071,7 @@
       </c>
       <c r="J516" s="1"/>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>205</v>
       </c>
@@ -20101,7 +20101,7 @@
       </c>
       <c r="J517" s="1"/>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>206</v>
       </c>
@@ -20131,7 +20131,7 @@
       </c>
       <c r="J518" s="1"/>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>207</v>
       </c>
@@ -20161,7 +20161,7 @@
       </c>
       <c r="J519" s="1"/>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>208</v>
       </c>
@@ -20191,7 +20191,7 @@
       </c>
       <c r="J520" s="1"/>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>209</v>
       </c>
@@ -20221,7 +20221,7 @@
       </c>
       <c r="J521" s="1"/>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>210</v>
       </c>
@@ -20251,7 +20251,7 @@
       </c>
       <c r="J522" s="1"/>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>211</v>
       </c>
@@ -20281,7 +20281,7 @@
       </c>
       <c r="J523" s="1"/>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>212</v>
       </c>
@@ -20311,7 +20311,7 @@
       </c>
       <c r="J524" s="1"/>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>213</v>
       </c>
@@ -20341,7 +20341,7 @@
       </c>
       <c r="J525" s="1"/>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>214</v>
       </c>
@@ -20371,7 +20371,7 @@
       </c>
       <c r="J526" s="1"/>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>215</v>
       </c>
@@ -20401,7 +20401,7 @@
       </c>
       <c r="J527" s="1"/>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>216</v>
       </c>
@@ -20431,7 +20431,7 @@
       </c>
       <c r="J528" s="1"/>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>217</v>
       </c>
@@ -20461,7 +20461,7 @@
       </c>
       <c r="J529" s="1"/>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>218</v>
       </c>
@@ -20491,7 +20491,7 @@
       </c>
       <c r="J530" s="1"/>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
         <v>219</v>
       </c>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="J531" s="1"/>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>220</v>
       </c>
@@ -20551,7 +20551,7 @@
       </c>
       <c r="J532" s="1"/>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
         <v>221</v>
       </c>
@@ -20581,7 +20581,7 @@
       </c>
       <c r="J533" s="1"/>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>222</v>
       </c>
@@ -20611,7 +20611,7 @@
       </c>
       <c r="J534" s="1"/>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
         <v>223</v>
       </c>
@@ -20641,7 +20641,7 @@
       </c>
       <c r="J535" s="1"/>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>224</v>
       </c>
@@ -20671,7 +20671,7 @@
       </c>
       <c r="J536" s="1"/>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>225</v>
       </c>
@@ -20701,7 +20701,7 @@
       </c>
       <c r="J537" s="1"/>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>227</v>
       </c>
@@ -20731,7 +20731,7 @@
       </c>
       <c r="J538" s="1"/>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>229</v>
       </c>
@@ -20761,7 +20761,7 @@
       </c>
       <c r="J539" s="1"/>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>231</v>
       </c>
@@ -20791,7 +20791,7 @@
       </c>
       <c r="J540" s="1"/>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>233</v>
       </c>
@@ -20821,7 +20821,7 @@
       </c>
       <c r="J541" s="1"/>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>235</v>
       </c>
@@ -20851,7 +20851,7 @@
       </c>
       <c r="J542" s="1"/>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>237</v>
       </c>
@@ -20881,7 +20881,7 @@
       </c>
       <c r="J543" s="1"/>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>239</v>
       </c>
@@ -20911,7 +20911,7 @@
       </c>
       <c r="J544" s="1"/>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>240</v>
       </c>
@@ -20941,7 +20941,7 @@
       </c>
       <c r="J545" s="1"/>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>241</v>
       </c>
@@ -20971,7 +20971,7 @@
       </c>
       <c r="J546" s="1"/>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>243</v>
       </c>
@@ -21001,7 +21001,7 @@
       </c>
       <c r="J547" s="1"/>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>245</v>
       </c>
@@ -21031,7 +21031,7 @@
       </c>
       <c r="J548" s="1"/>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>246</v>
       </c>
@@ -21061,7 +21061,7 @@
       </c>
       <c r="J549" s="1"/>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>248</v>
       </c>
@@ -21091,7 +21091,7 @@
       </c>
       <c r="J550" s="1"/>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>250</v>
       </c>
@@ -21121,7 +21121,7 @@
       </c>
       <c r="J551" s="1"/>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>251</v>
       </c>
@@ -21151,7 +21151,7 @@
       </c>
       <c r="J552" s="1"/>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>253</v>
       </c>
@@ -21181,7 +21181,7 @@
       </c>
       <c r="J553" s="1"/>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>254</v>
       </c>
@@ -21211,7 +21211,7 @@
       </c>
       <c r="J554" s="1"/>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>255</v>
       </c>
@@ -21241,7 +21241,7 @@
       </c>
       <c r="J555" s="1"/>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>256</v>
       </c>
@@ -21271,7 +21271,7 @@
       </c>
       <c r="J556" s="1"/>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>258</v>
       </c>
@@ -21301,7 +21301,7 @@
       </c>
       <c r="J557" s="1"/>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
         <v>260</v>
       </c>
@@ -21331,7 +21331,7 @@
       </c>
       <c r="J558" s="1"/>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>262</v>
       </c>
@@ -21361,7 +21361,7 @@
       </c>
       <c r="J559" s="1"/>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
         <v>263</v>
       </c>
@@ -21391,7 +21391,7 @@
       </c>
       <c r="J560" s="1"/>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>264</v>
       </c>
@@ -21421,7 +21421,7 @@
       </c>
       <c r="J561" s="1"/>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>266</v>
       </c>
@@ -21451,7 +21451,7 @@
       </c>
       <c r="J562" s="1"/>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>268</v>
       </c>
@@ -21481,7 +21481,7 @@
       </c>
       <c r="J563" s="1"/>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>269</v>
       </c>
@@ -21511,7 +21511,7 @@
       </c>
       <c r="J564" s="1"/>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>271</v>
       </c>
@@ -21541,7 +21541,7 @@
       </c>
       <c r="J565" s="1"/>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>274</v>
       </c>
@@ -21571,7 +21571,7 @@
       </c>
       <c r="J566" s="1"/>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>275</v>
       </c>
@@ -21601,7 +21601,7 @@
       </c>
       <c r="J567" s="1"/>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>277</v>
       </c>
@@ -21631,7 +21631,7 @@
       </c>
       <c r="J568" s="1"/>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>278</v>
       </c>
@@ -21661,7 +21661,7 @@
       </c>
       <c r="J569" s="1"/>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>279</v>
       </c>
@@ -21691,7 +21691,7 @@
       </c>
       <c r="J570" s="1"/>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>280</v>
       </c>
@@ -21721,7 +21721,7 @@
       </c>
       <c r="J571" s="1"/>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>282</v>
       </c>
@@ -21751,7 +21751,7 @@
       </c>
       <c r="J572" s="1"/>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
         <v>284</v>
       </c>
@@ -21781,7 +21781,7 @@
       </c>
       <c r="J573" s="1"/>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>286</v>
       </c>
@@ -21811,7 +21811,7 @@
       </c>
       <c r="J574" s="1"/>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
         <v>287</v>
       </c>
@@ -21841,7 +21841,7 @@
       </c>
       <c r="J575" s="1"/>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>288</v>
       </c>
@@ -21871,7 +21871,7 @@
       </c>
       <c r="J576" s="1"/>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
         <v>289</v>
       </c>
@@ -21901,7 +21901,7 @@
       </c>
       <c r="J577" s="1"/>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>290</v>
       </c>
@@ -21931,7 +21931,7 @@
       </c>
       <c r="J578" s="1"/>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
         <v>291</v>
       </c>
@@ -21961,7 +21961,7 @@
       </c>
       <c r="J579" s="1"/>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>292</v>
       </c>
@@ -21991,7 +21991,7 @@
       </c>
       <c r="J580" s="1"/>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
         <v>294</v>
       </c>
@@ -22021,7 +22021,7 @@
       </c>
       <c r="J581" s="1"/>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
         <v>296</v>
       </c>
@@ -22051,7 +22051,7 @@
       </c>
       <c r="J582" s="1"/>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
         <v>298</v>
       </c>
@@ -22081,7 +22081,7 @@
       </c>
       <c r="J583" s="1"/>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
         <v>299</v>
       </c>
@@ -22111,7 +22111,7 @@
       </c>
       <c r="J584" s="1"/>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>300</v>
       </c>
@@ -22141,7 +22141,7 @@
       </c>
       <c r="J585" s="1"/>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
         <v>302</v>
       </c>
@@ -22171,7 +22171,7 @@
       </c>
       <c r="J586" s="1"/>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>303</v>
       </c>
@@ -22201,7 +22201,7 @@
       </c>
       <c r="J587" s="1"/>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
         <v>304</v>
       </c>
@@ -22231,7 +22231,7 @@
       </c>
       <c r="J588" s="1"/>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
         <v>305</v>
       </c>
@@ -22261,7 +22261,7 @@
       </c>
       <c r="J589" s="1"/>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>306</v>
       </c>
@@ -22291,7 +22291,7 @@
       </c>
       <c r="J590" s="1"/>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
         <v>307</v>
       </c>
@@ -22321,7 +22321,7 @@
       </c>
       <c r="J591" s="1"/>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>308</v>
       </c>
@@ -22351,7 +22351,7 @@
       </c>
       <c r="J592" s="1"/>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
         <v>309</v>
       </c>
@@ -22381,7 +22381,7 @@
       </c>
       <c r="J593" s="1"/>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
         <v>310</v>
       </c>
@@ -22411,7 +22411,7 @@
       </c>
       <c r="J594" s="1"/>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
         <v>311</v>
       </c>
@@ -22441,7 +22441,7 @@
       </c>
       <c r="J595" s="1"/>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
         <v>312</v>
       </c>
@@ -22471,7 +22471,7 @@
       </c>
       <c r="J596" s="1"/>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
         <v>314</v>
       </c>
@@ -22501,7 +22501,7 @@
       </c>
       <c r="J597" s="1"/>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
         <v>316</v>
       </c>
@@ -22531,7 +22531,7 @@
       </c>
       <c r="J598" s="1"/>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
         <v>318</v>
       </c>
@@ -22561,7 +22561,7 @@
       </c>
       <c r="J599" s="1"/>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
         <v>320</v>
       </c>
@@ -22591,7 +22591,7 @@
       </c>
       <c r="J600" s="1"/>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A601" s="1" t="s">
         <v>322</v>
       </c>
@@ -22621,7 +22621,7 @@
       </c>
       <c r="J601" s="1"/>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
         <v>323</v>
       </c>
@@ -22651,7 +22651,7 @@
       </c>
       <c r="J602" s="1"/>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A603" s="1" t="s">
         <v>324</v>
       </c>
@@ -22681,7 +22681,7 @@
       </c>
       <c r="J603" s="1"/>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
         <v>325</v>
       </c>
@@ -22711,7 +22711,7 @@
       </c>
       <c r="J604" s="1"/>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A605" s="1" t="s">
         <v>326</v>
       </c>
@@ -22741,7 +22741,7 @@
       </c>
       <c r="J605" s="1"/>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
         <v>327</v>
       </c>
@@ -22771,7 +22771,7 @@
       </c>
       <c r="J606" s="1"/>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A607" s="1" t="s">
         <v>328</v>
       </c>
@@ -22801,7 +22801,7 @@
       </c>
       <c r="J607" s="1"/>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
         <v>330</v>
       </c>
@@ -22831,7 +22831,7 @@
       </c>
       <c r="J608" s="1"/>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
         <v>331</v>
       </c>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="J609" s="1"/>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
         <v>332</v>
       </c>
@@ -22891,7 +22891,7 @@
       </c>
       <c r="J610" s="1"/>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
         <v>333</v>
       </c>
@@ -22921,7 +22921,7 @@
       </c>
       <c r="J611" s="1"/>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
         <v>334</v>
       </c>
@@ -22951,7 +22951,7 @@
       </c>
       <c r="J612" s="1"/>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
         <v>335</v>
       </c>
@@ -22981,7 +22981,7 @@
       </c>
       <c r="J613" s="1"/>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
         <v>336</v>
       </c>
@@ -23011,7 +23011,7 @@
       </c>
       <c r="J614" s="1"/>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
         <v>337</v>
       </c>
@@ -23041,7 +23041,7 @@
       </c>
       <c r="J615" s="1"/>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
         <v>338</v>
       </c>
@@ -23071,7 +23071,7 @@
       </c>
       <c r="J616" s="1"/>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A617" s="1" t="s">
         <v>339</v>
       </c>
@@ -23101,7 +23101,7 @@
       </c>
       <c r="J617" s="1"/>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
         <v>340</v>
       </c>
@@ -23131,7 +23131,7 @@
       </c>
       <c r="J618" s="1"/>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A619" s="1" t="s">
         <v>342</v>
       </c>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="J619" s="1"/>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
         <v>344</v>
       </c>
@@ -23191,7 +23191,7 @@
       </c>
       <c r="J620" s="1"/>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A621" s="1" t="s">
         <v>346</v>
       </c>
@@ -23221,7 +23221,7 @@
       </c>
       <c r="J621" s="1"/>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
         <v>348</v>
       </c>
@@ -23251,7 +23251,7 @@
       </c>
       <c r="J622" s="1"/>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A623" s="1" t="s">
         <v>350</v>
       </c>
@@ -23281,7 +23281,7 @@
       </c>
       <c r="J623" s="1"/>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
         <v>351</v>
       </c>
@@ -23311,7 +23311,7 @@
       </c>
       <c r="J624" s="1"/>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A625" s="1" t="s">
         <v>352</v>
       </c>
@@ -23341,7 +23341,7 @@
       </c>
       <c r="J625" s="1"/>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
         <v>353</v>
       </c>
@@ -23371,7 +23371,7 @@
       </c>
       <c r="J626" s="1"/>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A627" s="1" t="s">
         <v>354</v>
       </c>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="J627" s="1"/>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
         <v>356</v>
       </c>
@@ -23431,7 +23431,7 @@
       </c>
       <c r="J628" s="1"/>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
         <v>357</v>
       </c>
@@ -23461,7 +23461,7 @@
       </c>
       <c r="J629" s="1"/>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
         <v>358</v>
       </c>
@@ -23491,7 +23491,7 @@
       </c>
       <c r="J630" s="1"/>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A631" s="1" t="s">
         <v>359</v>
       </c>
@@ -23521,7 +23521,7 @@
       </c>
       <c r="J631" s="1"/>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
         <v>360</v>
       </c>
@@ -23551,7 +23551,7 @@
       </c>
       <c r="J632" s="1"/>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A633" s="1" t="s">
         <v>361</v>
       </c>
@@ -23581,7 +23581,7 @@
       </c>
       <c r="J633" s="1"/>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
         <v>362</v>
       </c>
@@ -23611,7 +23611,7 @@
       </c>
       <c r="J634" s="1"/>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A635" s="1" t="s">
         <v>363</v>
       </c>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="J635" s="1"/>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
         <v>364</v>
       </c>
@@ -23671,7 +23671,7 @@
       </c>
       <c r="J636" s="1"/>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A637" s="1" t="s">
         <v>365</v>
       </c>
@@ -23701,7 +23701,7 @@
       </c>
       <c r="J637" s="1"/>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
         <v>366</v>
       </c>
@@ -23731,7 +23731,7 @@
       </c>
       <c r="J638" s="1"/>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A639" s="1" t="s">
         <v>368</v>
       </c>
@@ -23761,7 +23761,7 @@
       </c>
       <c r="J639" s="1"/>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
         <v>369</v>
       </c>
@@ -23791,7 +23791,7 @@
       </c>
       <c r="J640" s="1"/>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A641" s="1" t="s">
         <v>370</v>
       </c>
@@ -23821,7 +23821,7 @@
       </c>
       <c r="J641" s="1"/>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
         <v>372</v>
       </c>
@@ -23851,7 +23851,7 @@
       </c>
       <c r="J642" s="1"/>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A643" s="1" t="s">
         <v>374</v>
       </c>
@@ -23881,7 +23881,7 @@
       </c>
       <c r="J643" s="1"/>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
         <v>376</v>
       </c>
@@ -23911,7 +23911,7 @@
       </c>
       <c r="J644" s="1"/>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A645" s="1" t="s">
         <v>377</v>
       </c>
@@ -23941,7 +23941,7 @@
       </c>
       <c r="J645" s="1"/>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A646" s="1" t="s">
         <v>378</v>
       </c>
@@ -23971,7 +23971,7 @@
       </c>
       <c r="J646" s="1"/>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A647" s="1" t="s">
         <v>379</v>
       </c>
@@ -24001,7 +24001,7 @@
       </c>
       <c r="J647" s="1"/>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A648" s="1" t="s">
         <v>380</v>
       </c>
@@ -24031,7 +24031,7 @@
       </c>
       <c r="J648" s="1"/>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A649" s="1" t="s">
         <v>381</v>
       </c>
@@ -24061,7 +24061,7 @@
       </c>
       <c r="J649" s="1"/>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A650" s="1" t="s">
         <v>382</v>
       </c>
@@ -24091,7 +24091,7 @@
       </c>
       <c r="J650" s="1"/>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A651" s="1" t="s">
         <v>383</v>
       </c>
@@ -24121,7 +24121,7 @@
       </c>
       <c r="J651" s="1"/>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A652" s="1" t="s">
         <v>384</v>
       </c>
@@ -24151,7 +24151,7 @@
       </c>
       <c r="J652" s="1"/>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A653" s="1" t="s">
         <v>385</v>
       </c>
@@ -24181,7 +24181,7 @@
       </c>
       <c r="J653" s="1"/>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A654" s="1" t="s">
         <v>386</v>
       </c>
@@ -24211,7 +24211,7 @@
       </c>
       <c r="J654" s="1"/>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A655" s="1" t="s">
         <v>387</v>
       </c>
@@ -24241,7 +24241,7 @@
       </c>
       <c r="J655" s="1"/>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A656" s="1" t="s">
         <v>388</v>
       </c>
@@ -24271,7 +24271,7 @@
       </c>
       <c r="J656" s="1"/>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A657" s="1" t="s">
         <v>389</v>
       </c>
@@ -24301,7 +24301,7 @@
       </c>
       <c r="J657" s="1"/>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A658" s="1" t="s">
         <v>390</v>
       </c>
@@ -24331,7 +24331,7 @@
       </c>
       <c r="J658" s="1"/>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A659" s="1" t="s">
         <v>391</v>
       </c>
@@ -24361,7 +24361,7 @@
       </c>
       <c r="J659" s="1"/>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A660" s="1" t="s">
         <v>393</v>
       </c>
@@ -24391,7 +24391,7 @@
       </c>
       <c r="J660" s="1"/>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A661" s="1" t="s">
         <v>394</v>
       </c>
@@ -24421,7 +24421,7 @@
       </c>
       <c r="J661" s="1"/>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A662" s="1" t="s">
         <v>395</v>
       </c>
@@ -24451,7 +24451,7 @@
       </c>
       <c r="J662" s="1"/>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A663" s="1" t="s">
         <v>397</v>
       </c>
@@ -24481,7 +24481,7 @@
       </c>
       <c r="J663" s="1"/>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A664" s="1" t="s">
         <v>398</v>
       </c>
@@ -24511,7 +24511,7 @@
       </c>
       <c r="J664" s="1"/>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A665" s="1" t="s">
         <v>399</v>
       </c>
@@ -24541,7 +24541,7 @@
       </c>
       <c r="J665" s="1"/>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A666" s="1" t="s">
         <v>401</v>
       </c>
@@ -24571,7 +24571,7 @@
       </c>
       <c r="J666" s="1"/>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A667" s="1" t="s">
         <v>402</v>
       </c>
@@ -24601,7 +24601,7 @@
       </c>
       <c r="J667" s="1"/>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A668" s="1" t="s">
         <v>403</v>
       </c>
@@ -24631,7 +24631,7 @@
       </c>
       <c r="J668" s="1"/>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A669" s="1" t="s">
         <v>404</v>
       </c>
@@ -24661,7 +24661,7 @@
       </c>
       <c r="J669" s="1"/>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A670" s="1" t="s">
         <v>406</v>
       </c>
@@ -24691,7 +24691,7 @@
       </c>
       <c r="J670" s="1"/>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A671" s="1" t="s">
         <v>408</v>
       </c>
@@ -24721,7 +24721,7 @@
       </c>
       <c r="J671" s="1"/>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A672" s="1" t="s">
         <v>410</v>
       </c>
@@ -24751,7 +24751,7 @@
       </c>
       <c r="J672" s="1"/>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A673" s="1" t="s">
         <v>411</v>
       </c>
@@ -24781,7 +24781,7 @@
       </c>
       <c r="J673" s="1"/>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A674" s="1" t="s">
         <v>412</v>
       </c>
@@ -24811,7 +24811,7 @@
       </c>
       <c r="J674" s="1"/>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A675" s="1" t="s">
         <v>413</v>
       </c>
@@ -24841,7 +24841,7 @@
       </c>
       <c r="J675" s="1"/>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A676" s="1" t="s">
         <v>414</v>
       </c>
@@ -24871,7 +24871,7 @@
       </c>
       <c r="J676" s="1"/>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A677" s="1" t="s">
         <v>415</v>
       </c>
@@ -24901,7 +24901,7 @@
       </c>
       <c r="J677" s="1"/>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A678" s="1" t="s">
         <v>417</v>
       </c>
@@ -24931,7 +24931,7 @@
       </c>
       <c r="J678" s="1"/>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A679" s="1" t="s">
         <v>419</v>
       </c>
@@ -24961,7 +24961,7 @@
       </c>
       <c r="J679" s="1"/>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A680" s="1" t="s">
         <v>420</v>
       </c>
@@ -24991,7 +24991,7 @@
       </c>
       <c r="J680" s="1"/>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A681" s="1" t="s">
         <v>421</v>
       </c>
@@ -25021,7 +25021,7 @@
       </c>
       <c r="J681" s="1"/>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A682" s="1" t="s">
         <v>423</v>
       </c>
@@ -25051,7 +25051,7 @@
       </c>
       <c r="J682" s="1"/>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A683" s="1" t="s">
         <v>425</v>
       </c>
@@ -25081,7 +25081,7 @@
       </c>
       <c r="J683" s="1"/>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A684" s="1" t="s">
         <v>665</v>
       </c>
@@ -25113,7 +25113,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A685" s="1" t="s">
         <v>717</v>
       </c>
@@ -25145,7 +25145,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A686" s="1" t="s">
         <v>729</v>
       </c>
@@ -25177,7 +25177,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A687" s="1" t="s">
         <v>893</v>
       </c>
@@ -25209,7 +25209,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A688" s="1" t="s">
         <v>1007</v>
       </c>
@@ -25241,7 +25241,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A689" s="1" t="s">
         <v>894</v>
       </c>
@@ -25273,7 +25273,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A690" s="1" t="s">
         <v>1021</v>
       </c>
@@ -25305,7 +25305,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A691" s="1" t="s">
         <v>669</v>
       </c>
@@ -25337,7 +25337,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A692" s="1" t="s">
         <v>905</v>
       </c>
@@ -25369,7 +25369,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A693" s="1" t="s">
         <v>906</v>
       </c>
@@ -25401,7 +25401,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A694" s="1" t="s">
         <v>677</v>
       </c>
@@ -25433,7 +25433,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A695" s="1" t="s">
         <v>725</v>
       </c>
@@ -25465,7 +25465,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A696" s="1" t="s">
         <v>737</v>
       </c>
@@ -25497,7 +25497,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A697" s="1" t="s">
         <v>713</v>
       </c>
@@ -25529,7 +25529,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A698" s="1" t="s">
         <v>714</v>
       </c>
@@ -25561,7 +25561,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A699" s="1" t="s">
         <v>715</v>
       </c>
@@ -25593,7 +25593,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A700" s="1" t="s">
         <v>924</v>
       </c>
@@ -25625,7 +25625,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A701" s="1" t="s">
         <v>1017</v>
       </c>
@@ -25657,7 +25657,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A702" s="1" t="s">
         <v>925</v>
       </c>
@@ -25689,7 +25689,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A703" s="1" t="s">
         <v>1028</v>
       </c>
@@ -25721,7 +25721,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A704" s="1" t="s">
         <v>1003</v>
       </c>
@@ -25753,7 +25753,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A705" s="1" t="s">
         <v>1004</v>
       </c>
@@ -25785,7 +25785,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A706" s="1" t="s">
         <v>1005</v>
       </c>
@@ -25817,7 +25817,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A707" s="1" t="s">
         <v>672</v>
       </c>
@@ -25849,7 +25849,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A708" s="1" t="s">
         <v>721</v>
       </c>
@@ -25881,7 +25881,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A709" s="1" t="s">
         <v>733</v>
       </c>
@@ -25913,7 +25913,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A710" s="1" t="s">
         <v>913</v>
       </c>
@@ -25945,7 +25945,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A711" s="1" t="s">
         <v>1013</v>
       </c>
@@ -25977,7 +25977,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A712" s="1" t="s">
         <v>914</v>
       </c>
@@ -26009,7 +26009,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A713" s="1" t="s">
         <v>1025</v>
       </c>
@@ -26041,7 +26041,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A714" s="1" t="s">
         <v>678</v>
       </c>
@@ -26071,7 +26071,7 @@
       </c>
       <c r="J714" s="1"/>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A715" s="1" t="s">
         <v>926</v>
       </c>
@@ -26101,7 +26101,7 @@
       </c>
       <c r="J715" s="1"/>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A716" s="1" t="s">
         <v>680</v>
       </c>
@@ -26131,7 +26131,7 @@
       </c>
       <c r="J716" s="1"/>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A717" s="1" t="s">
         <v>927</v>
       </c>
@@ -26161,7 +26161,7 @@
       </c>
       <c r="J717" s="1"/>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A718" s="1" t="s">
         <v>666</v>
       </c>
@@ -26193,7 +26193,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A719" s="1" t="s">
         <v>718</v>
       </c>
@@ -26225,7 +26225,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A720" s="1" t="s">
         <v>730</v>
       </c>
@@ -26257,7 +26257,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A721" s="1" t="s">
         <v>895</v>
       </c>
@@ -26289,7 +26289,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A722" s="1" t="s">
         <v>1008</v>
       </c>
@@ -26321,7 +26321,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A723" s="1" t="s">
         <v>896</v>
       </c>
@@ -26353,7 +26353,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A724" s="1" t="s">
         <v>1022</v>
       </c>
@@ -26385,7 +26385,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A725" s="1" t="s">
         <v>670</v>
       </c>
@@ -26417,7 +26417,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A726" s="1" t="s">
         <v>907</v>
       </c>
@@ -26449,7 +26449,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A727" s="1" t="s">
         <v>908</v>
       </c>
@@ -26481,7 +26481,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A728" s="1" t="s">
         <v>682</v>
       </c>
@@ -26513,7 +26513,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A729" s="1" t="s">
         <v>726</v>
       </c>
@@ -26545,7 +26545,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A730" s="1" t="s">
         <v>738</v>
       </c>
@@ -26577,7 +26577,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A731" s="1" t="s">
         <v>716</v>
       </c>
@@ -26609,7 +26609,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A732" s="1" t="s">
         <v>928</v>
       </c>
@@ -26641,7 +26641,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A733" s="1" t="s">
         <v>1018</v>
       </c>
@@ -26673,7 +26673,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A734" s="1" t="s">
         <v>929</v>
       </c>
@@ -26705,7 +26705,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A735" s="1" t="s">
         <v>1029</v>
       </c>
@@ -26737,7 +26737,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A736" s="1" t="s">
         <v>1006</v>
       </c>
@@ -26769,7 +26769,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A737" s="1" t="s">
         <v>673</v>
       </c>
@@ -26801,7 +26801,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A738" s="1" t="s">
         <v>722</v>
       </c>
@@ -26833,7 +26833,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A739" s="1" t="s">
         <v>734</v>
       </c>
@@ -26865,7 +26865,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A740" s="1" t="s">
         <v>915</v>
       </c>
@@ -26897,7 +26897,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A741" s="1" t="s">
         <v>1014</v>
       </c>
@@ -26929,7 +26929,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A742" s="1" t="s">
         <v>916</v>
       </c>
@@ -26961,7 +26961,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A743" s="1" t="s">
         <v>1026</v>
       </c>
@@ -26993,7 +26993,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A744" s="1" t="s">
         <v>683</v>
       </c>
@@ -27023,7 +27023,7 @@
       </c>
       <c r="J744" s="1"/>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A745" s="1" t="s">
         <v>930</v>
       </c>
@@ -27053,7 +27053,7 @@
       </c>
       <c r="J745" s="1"/>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A746" s="1" t="s">
         <v>685</v>
       </c>
@@ -27083,7 +27083,7 @@
       </c>
       <c r="J746" s="1"/>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A747" s="1" t="s">
         <v>931</v>
       </c>
@@ -27113,7 +27113,7 @@
       </c>
       <c r="J747" s="1"/>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A748" s="1" t="s">
         <v>719</v>
       </c>
@@ -27145,7 +27145,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A749" s="1" t="s">
         <v>731</v>
       </c>
@@ -27177,7 +27177,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="750" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A750" s="1" t="s">
         <v>687</v>
       </c>
@@ -27209,7 +27209,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="751" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A751" s="1" t="s">
         <v>727</v>
       </c>
@@ -27241,7 +27241,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="752" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A752" s="1" t="s">
         <v>739</v>
       </c>
@@ -27273,7 +27273,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A753" s="1" t="s">
         <v>932</v>
       </c>
@@ -27305,7 +27305,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A754" s="1" t="s">
         <v>723</v>
       </c>
@@ -27337,7 +27337,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A755" s="1" t="s">
         <v>735</v>
       </c>
@@ -27369,7 +27369,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A756" s="1" t="s">
         <v>934</v>
       </c>
@@ -27399,7 +27399,7 @@
       </c>
       <c r="J756" s="1"/>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A757" s="1" t="s">
         <v>668</v>
       </c>
@@ -27431,7 +27431,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A758" s="1" t="s">
         <v>720</v>
       </c>
@@ -27463,7 +27463,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A759" s="1" t="s">
         <v>732</v>
       </c>
@@ -27495,7 +27495,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A760" s="1" t="s">
         <v>897</v>
       </c>
@@ -27527,7 +27527,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A761" s="1" t="s">
         <v>1010</v>
       </c>
@@ -27559,7 +27559,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A762" s="1" t="s">
         <v>899</v>
       </c>
@@ -27591,7 +27591,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A763" s="1" t="s">
         <v>1024</v>
       </c>
@@ -27623,7 +27623,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A764" s="1" t="s">
         <v>671</v>
       </c>
@@ -27655,7 +27655,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A765" s="1" t="s">
         <v>909</v>
       </c>
@@ -27687,7 +27687,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="766" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A766" s="1" t="s">
         <v>910</v>
       </c>
@@ -27719,7 +27719,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A767" s="1" t="s">
         <v>689</v>
       </c>
@@ -27751,7 +27751,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A768" s="1" t="s">
         <v>728</v>
       </c>
@@ -27783,7 +27783,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="769" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A769" s="1" t="s">
         <v>740</v>
       </c>
@@ -27815,7 +27815,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A770" s="1" t="s">
         <v>936</v>
       </c>
@@ -27847,7 +27847,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A771" s="1" t="s">
         <v>1019</v>
       </c>
@@ -27879,7 +27879,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="772" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A772" s="1" t="s">
         <v>937</v>
       </c>
@@ -27911,7 +27911,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A773" s="1" t="s">
         <v>1030</v>
       </c>
@@ -27943,7 +27943,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A774" s="1" t="s">
         <v>674</v>
       </c>
@@ -27975,7 +27975,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A775" s="1" t="s">
         <v>724</v>
       </c>
@@ -28007,7 +28007,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A776" s="1" t="s">
         <v>736</v>
       </c>
@@ -28039,7 +28039,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A777" s="1" t="s">
         <v>917</v>
       </c>
@@ -28071,7 +28071,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A778" s="1" t="s">
         <v>1015</v>
       </c>
@@ -28103,7 +28103,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A779" s="1" t="s">
         <v>918</v>
       </c>
@@ -28135,7 +28135,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A780" s="1" t="s">
         <v>1027</v>
       </c>
@@ -28167,7 +28167,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="781" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A781" s="1" t="s">
         <v>427</v>
       </c>
@@ -28197,7 +28197,7 @@
       </c>
       <c r="J781" s="1"/>
     </row>
-    <row r="782" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A782" s="1" t="s">
         <v>429</v>
       </c>
@@ -28227,7 +28227,7 @@
       </c>
       <c r="J782" s="1"/>
     </row>
-    <row r="783" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A783" s="1" t="s">
         <v>431</v>
       </c>
@@ -28257,7 +28257,7 @@
       </c>
       <c r="J783" s="1"/>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A784" s="1" t="s">
         <v>432</v>
       </c>
@@ -28287,7 +28287,7 @@
       </c>
       <c r="J784" s="1"/>
     </row>
-    <row r="785" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A785" s="1" t="s">
         <v>938</v>
       </c>
@@ -28317,7 +28317,7 @@
       </c>
       <c r="J785" s="1"/>
     </row>
-    <row r="786" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A786" s="1" t="s">
         <v>901</v>
       </c>
@@ -28347,7 +28347,7 @@
       </c>
       <c r="J786" s="1"/>
     </row>
-    <row r="787" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A787" s="1" t="s">
         <v>1011</v>
       </c>
@@ -28377,7 +28377,7 @@
       </c>
       <c r="J787" s="1"/>
     </row>
-    <row r="788" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A788" s="1" t="s">
         <v>911</v>
       </c>
@@ -28407,7 +28407,7 @@
       </c>
       <c r="J788" s="1"/>
     </row>
-    <row r="789" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A789" s="1" t="s">
         <v>940</v>
       </c>
@@ -28437,7 +28437,7 @@
       </c>
       <c r="J789" s="1"/>
     </row>
-    <row r="790" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A790" s="1" t="s">
         <v>1020</v>
       </c>
@@ -28467,7 +28467,7 @@
       </c>
       <c r="J790" s="1"/>
     </row>
-    <row r="791" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A791" s="1" t="s">
         <v>941</v>
       </c>
@@ -28497,7 +28497,7 @@
       </c>
       <c r="J791" s="1"/>
     </row>
-    <row r="792" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A792" s="1" t="s">
         <v>919</v>
       </c>
@@ -28527,7 +28527,7 @@
       </c>
       <c r="J792" s="1"/>
     </row>
-    <row r="793" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A793" s="1" t="s">
         <v>1016</v>
       </c>
@@ -28557,7 +28557,7 @@
       </c>
       <c r="J793" s="1"/>
     </row>
-    <row r="794" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A794" s="1" t="s">
         <v>942</v>
       </c>
@@ -28587,7 +28587,7 @@
       </c>
       <c r="J794" s="1"/>
     </row>
-    <row r="795" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A795" s="1" t="s">
         <v>690</v>
       </c>
@@ -28617,7 +28617,7 @@
       </c>
       <c r="J795" s="1"/>
     </row>
-    <row r="796" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A796" s="1" t="s">
         <v>944</v>
       </c>
@@ -28647,7 +28647,7 @@
       </c>
       <c r="J796" s="1"/>
     </row>
-    <row r="797" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A797" s="1" t="s">
         <v>946</v>
       </c>
@@ -28677,7 +28677,7 @@
       </c>
       <c r="J797" s="1"/>
     </row>
-    <row r="798" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A798" s="1" t="s">
         <v>692</v>
       </c>
@@ -28707,7 +28707,7 @@
       </c>
       <c r="J798" s="1"/>
     </row>
-    <row r="799" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A799" s="1" t="s">
         <v>948</v>
       </c>
@@ -28737,7 +28737,7 @@
       </c>
       <c r="J799" s="1"/>
     </row>
-    <row r="800" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A800" s="1" t="s">
         <v>694</v>
       </c>
@@ -28769,7 +28769,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="801" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A801" s="1" t="s">
         <v>949</v>
       </c>
@@ -28801,7 +28801,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="802" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A802" s="1" t="s">
         <v>433</v>
       </c>
@@ -28831,7 +28831,7 @@
       </c>
       <c r="J802" s="1"/>
     </row>
-    <row r="803" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A803" s="1" t="s">
         <v>435</v>
       </c>
@@ -28861,7 +28861,7 @@
       </c>
       <c r="J803" s="1"/>
     </row>
-    <row r="804" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A804" s="1" t="s">
         <v>437</v>
       </c>
@@ -28891,7 +28891,7 @@
       </c>
       <c r="J804" s="1"/>
     </row>
-    <row r="805" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A805" s="1" t="s">
         <v>438</v>
       </c>
@@ -28921,7 +28921,7 @@
       </c>
       <c r="J805" s="1"/>
     </row>
-    <row r="806" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A806" s="1" t="s">
         <v>695</v>
       </c>
@@ -28951,7 +28951,7 @@
       </c>
       <c r="J806" s="1"/>
     </row>
-    <row r="807" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A807" s="1" t="s">
         <v>950</v>
       </c>
@@ -28981,7 +28981,7 @@
       </c>
       <c r="J807" s="1"/>
     </row>
-    <row r="808" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A808" s="1" t="s">
         <v>951</v>
       </c>
@@ -29011,7 +29011,7 @@
       </c>
       <c r="J808" s="1"/>
     </row>
-    <row r="809" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A809" s="1" t="s">
         <v>952</v>
       </c>
@@ -29041,7 +29041,7 @@
       </c>
       <c r="J809" s="1"/>
     </row>
-    <row r="810" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A810" s="1" t="s">
         <v>696</v>
       </c>
@@ -29071,7 +29071,7 @@
       </c>
       <c r="J810" s="1"/>
     </row>
-    <row r="811" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A811" s="1" t="s">
         <v>954</v>
       </c>
@@ -29101,7 +29101,7 @@
       </c>
       <c r="J811" s="1"/>
     </row>
-    <row r="812" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A812" s="1" t="s">
         <v>956</v>
       </c>
@@ -29131,7 +29131,7 @@
       </c>
       <c r="J812" s="1"/>
     </row>
-    <row r="813" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A813" s="1" t="s">
         <v>903</v>
       </c>
@@ -29163,7 +29163,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="814" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A814" s="1" t="s">
         <v>912</v>
       </c>
@@ -29195,7 +29195,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="815" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A815" s="1" t="s">
         <v>958</v>
       </c>
@@ -29227,7 +29227,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="816" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A816" s="1" t="s">
         <v>920</v>
       </c>
@@ -29259,7 +29259,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="817" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A817" s="1" t="s">
         <v>698</v>
       </c>
@@ -29289,7 +29289,7 @@
       </c>
       <c r="J817" s="1"/>
     </row>
-    <row r="818" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A818" s="1" t="s">
         <v>959</v>
       </c>
@@ -29319,7 +29319,7 @@
       </c>
       <c r="J818" s="1"/>
     </row>
-    <row r="819" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A819" s="1" t="s">
         <v>960</v>
       </c>
@@ -29349,7 +29349,7 @@
       </c>
       <c r="J819" s="1"/>
     </row>
-    <row r="820" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A820" s="1" t="s">
         <v>700</v>
       </c>
@@ -29381,7 +29381,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="821" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A821" s="1" t="s">
         <v>962</v>
       </c>
@@ -29413,7 +29413,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="822" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A822" s="1" t="s">
         <v>439</v>
       </c>
@@ -29443,7 +29443,7 @@
       </c>
       <c r="J822" s="1"/>
     </row>
-    <row r="823" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A823" s="1" t="s">
         <v>441</v>
       </c>
@@ -29473,7 +29473,7 @@
       </c>
       <c r="J823" s="1"/>
     </row>
-    <row r="824" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A824" s="1" t="s">
         <v>702</v>
       </c>
@@ -29505,7 +29505,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="825" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A825" s="1" t="s">
         <v>964</v>
       </c>
@@ -29537,7 +29537,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="826" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A826" s="1" t="s">
         <v>704</v>
       </c>
@@ -29569,7 +29569,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="827" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A827" s="1" t="s">
         <v>966</v>
       </c>
@@ -29601,7 +29601,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="828" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A828" s="1" t="s">
         <v>968</v>
       </c>
@@ -29631,7 +29631,7 @@
       </c>
       <c r="J828" s="1"/>
     </row>
-    <row r="829" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A829" s="1" t="s">
         <v>442</v>
       </c>
@@ -29661,7 +29661,7 @@
       </c>
       <c r="J829" s="1"/>
     </row>
-    <row r="830" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A830" s="1" t="s">
         <v>705</v>
       </c>
@@ -29691,7 +29691,7 @@
       </c>
       <c r="J830" s="1"/>
     </row>
-    <row r="831" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A831" s="1" t="s">
         <v>969</v>
       </c>
@@ -29721,7 +29721,7 @@
       </c>
       <c r="J831" s="1"/>
     </row>
-    <row r="832" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A832" s="1" t="s">
         <v>707</v>
       </c>
@@ -29751,7 +29751,7 @@
       </c>
       <c r="J832" s="1"/>
     </row>
-    <row r="833" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A833" s="1" t="s">
         <v>971</v>
       </c>
@@ -29781,7 +29781,7 @@
       </c>
       <c r="J833" s="1"/>
     </row>
-    <row r="834" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A834" s="1" t="s">
         <v>444</v>
       </c>
@@ -29811,7 +29811,7 @@
       </c>
       <c r="J834" s="1"/>
     </row>
-    <row r="835" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A835" s="1" t="s">
         <v>446</v>
       </c>
@@ -29841,7 +29841,7 @@
       </c>
       <c r="J835" s="1"/>
     </row>
-    <row r="836" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A836" s="1" t="s">
         <v>447</v>
       </c>
@@ -29871,7 +29871,7 @@
       </c>
       <c r="J836" s="1"/>
     </row>
-    <row r="837" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A837" s="1" t="s">
         <v>709</v>
       </c>
@@ -29901,7 +29901,7 @@
       </c>
       <c r="J837" s="1"/>
     </row>
-    <row r="838" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A838" s="1" t="s">
         <v>973</v>
       </c>
@@ -29931,7 +29931,7 @@
       </c>
       <c r="J838" s="1"/>
     </row>
-    <row r="839" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A839" s="1" t="s">
         <v>711</v>
       </c>
@@ -29961,7 +29961,7 @@
       </c>
       <c r="J839" s="1"/>
     </row>
-    <row r="840" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A840" s="1" t="s">
         <v>974</v>
       </c>
@@ -29991,7 +29991,7 @@
       </c>
       <c r="J840" s="1"/>
     </row>
-    <row r="841" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A841" s="1" t="s">
         <v>448</v>
       </c>
@@ -30021,7 +30021,7 @@
       </c>
       <c r="J841" s="1"/>
     </row>
-    <row r="842" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A842" s="1" t="s">
         <v>450</v>
       </c>
@@ -30051,7 +30051,7 @@
       </c>
       <c r="J842" s="1"/>
     </row>
-    <row r="843" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A843" s="1" t="s">
         <v>451</v>
       </c>
@@ -30081,7 +30081,7 @@
       </c>
       <c r="J843" s="1"/>
     </row>
-    <row r="844" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A844" s="1" t="s">
         <v>453</v>
       </c>
@@ -30111,7 +30111,7 @@
       </c>
       <c r="J844" s="1"/>
     </row>
-    <row r="845" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A845" s="1" t="s">
         <v>454</v>
       </c>
@@ -30141,7 +30141,7 @@
       </c>
       <c r="J845" s="1"/>
     </row>
-    <row r="846" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A846" s="1" t="s">
         <v>456</v>
       </c>
@@ -30171,7 +30171,7 @@
       </c>
       <c r="J846" s="1"/>
     </row>
-    <row r="847" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A847" s="1" t="s">
         <v>458</v>
       </c>
@@ -30201,7 +30201,7 @@
       </c>
       <c r="J847" s="1"/>
     </row>
-    <row r="848" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A848" s="1" t="s">
         <v>460</v>
       </c>
@@ -30231,7 +30231,7 @@
       </c>
       <c r="J848" s="1"/>
     </row>
-    <row r="849" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A849" s="1" t="s">
         <v>462</v>
       </c>
@@ -30261,7 +30261,7 @@
       </c>
       <c r="J849" s="1"/>
     </row>
-    <row r="850" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A850" s="1" t="s">
         <v>463</v>
       </c>
@@ -30291,7 +30291,7 @@
       </c>
       <c r="J850" s="1"/>
     </row>
-    <row r="851" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A851" s="1" t="s">
         <v>465</v>
       </c>
@@ -30321,7 +30321,7 @@
       </c>
       <c r="J851" s="1"/>
     </row>
-    <row r="852" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A852" s="1" t="s">
         <v>466</v>
       </c>
@@ -30351,7 +30351,7 @@
       </c>
       <c r="J852" s="1"/>
     </row>
-    <row r="853" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A853" s="1" t="s">
         <v>468</v>
       </c>
@@ -30381,7 +30381,7 @@
       </c>
       <c r="J853" s="1"/>
     </row>
-    <row r="854" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A854" s="1" t="s">
         <v>470</v>
       </c>
@@ -30411,7 +30411,7 @@
       </c>
       <c r="J854" s="1"/>
     </row>
-    <row r="855" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A855" s="1" t="s">
         <v>472</v>
       </c>
@@ -30441,7 +30441,7 @@
       </c>
       <c r="J855" s="1"/>
     </row>
-    <row r="856" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A856" s="1" t="s">
         <v>473</v>
       </c>
@@ -30471,7 +30471,7 @@
       </c>
       <c r="J856" s="1"/>
     </row>
-    <row r="857" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A857" s="1" t="s">
         <v>474</v>
       </c>
@@ -30501,7 +30501,7 @@
       </c>
       <c r="J857" s="1"/>
     </row>
-    <row r="858" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A858" s="1" t="s">
         <v>922</v>
       </c>
@@ -30531,7 +30531,7 @@
       </c>
       <c r="J858" s="1"/>
     </row>
-    <row r="859" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A859" s="1" t="s">
         <v>475</v>
       </c>
@@ -30561,7 +30561,7 @@
       </c>
       <c r="J859" s="1"/>
     </row>
-    <row r="860" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A860" s="1" t="s">
         <v>493</v>
       </c>
@@ -30591,7 +30591,7 @@
       </c>
       <c r="J860" s="1"/>
     </row>
-    <row r="861" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A861" s="1" t="s">
         <v>497</v>
       </c>
@@ -30621,7 +30621,7 @@
       </c>
       <c r="J861" s="1"/>
     </row>
-    <row r="862" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A862" s="1" t="s">
         <v>499</v>
       </c>
@@ -30651,7 +30651,7 @@
       </c>
       <c r="J862" s="1"/>
     </row>
-    <row r="863" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A863" s="1" t="s">
         <v>495</v>
       </c>
@@ -30681,7 +30681,7 @@
       </c>
       <c r="J863" s="1"/>
     </row>
-    <row r="864" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A864" s="1" t="s">
         <v>1180</v>
       </c>
@@ -30711,7 +30711,7 @@
       </c>
       <c r="J864" s="1"/>
     </row>
-    <row r="865" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A865" s="1" t="s">
         <v>1181</v>
       </c>
@@ -30741,7 +30741,7 @@
       </c>
       <c r="J865" s="1"/>
     </row>
-    <row r="866" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A866" s="1" t="s">
         <v>1182</v>
       </c>
@@ -30771,7 +30771,7 @@
       </c>
       <c r="J866" s="1"/>
     </row>
-    <row r="867" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A867" s="1" t="s">
         <v>1183</v>
       </c>
@@ -30801,7 +30801,7 @@
       </c>
       <c r="J867" s="1"/>
     </row>
-    <row r="868" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A868" s="1" t="s">
         <v>1184</v>
       </c>
@@ -30831,7 +30831,7 @@
       </c>
       <c r="J868" s="1"/>
     </row>
-    <row r="869" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A869" s="1" t="s">
         <v>1185</v>
       </c>
@@ -30861,7 +30861,7 @@
       </c>
       <c r="J869" s="1"/>
     </row>
-    <row r="870" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A870" s="1" t="s">
         <v>1186</v>
       </c>
@@ -30891,7 +30891,7 @@
       </c>
       <c r="J870" s="1"/>
     </row>
-    <row r="871" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A871" s="1" t="s">
         <v>1187</v>
       </c>
@@ -30921,7 +30921,7 @@
       </c>
       <c r="J871" s="1"/>
     </row>
-    <row r="872" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A872" s="1" t="s">
         <v>1188</v>
       </c>
@@ -30951,7 +30951,7 @@
       </c>
       <c r="J872" s="1"/>
     </row>
-    <row r="873" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A873" s="1" t="s">
         <v>1189</v>
       </c>
@@ -30981,7 +30981,7 @@
       </c>
       <c r="J873" s="1"/>
     </row>
-    <row r="874" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A874" s="1" t="s">
         <v>1190</v>
       </c>
@@ -31011,7 +31011,7 @@
       </c>
       <c r="J874" s="1"/>
     </row>
-    <row r="875" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A875" s="1" t="s">
         <v>1191</v>
       </c>
@@ -31041,7 +31041,7 @@
       </c>
       <c r="J875" s="1"/>
     </row>
-    <row r="876" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A876" s="1" t="s">
         <v>1192</v>
       </c>
@@ -31071,7 +31071,7 @@
       </c>
       <c r="J876" s="1"/>
     </row>
-    <row r="877" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A877" s="1" t="s">
         <v>1193</v>
       </c>
@@ -31101,7 +31101,7 @@
       </c>
       <c r="J877" s="1"/>
     </row>
-    <row r="878" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A878" s="1" t="s">
         <v>1194</v>
       </c>
@@ -31131,7 +31131,7 @@
       </c>
       <c r="J878" s="1"/>
     </row>
-    <row r="879" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A879" s="1" t="s">
         <v>1195</v>
       </c>
@@ -31161,7 +31161,7 @@
       </c>
       <c r="J879" s="1"/>
     </row>
-    <row r="880" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A880" s="1" t="s">
         <v>1196</v>
       </c>
@@ -31191,7 +31191,7 @@
       </c>
       <c r="J880" s="1"/>
     </row>
-    <row r="881" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A881" s="1" t="s">
         <v>1197</v>
       </c>
@@ -31221,7 +31221,7 @@
       </c>
       <c r="J881" s="1"/>
     </row>
-    <row r="882" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A882" s="1" t="s">
         <v>1198</v>
       </c>
@@ -31251,7 +31251,7 @@
       </c>
       <c r="J882" s="1"/>
     </row>
-    <row r="883" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A883" s="1" t="s">
         <v>1199</v>
       </c>
@@ -31281,7 +31281,7 @@
       </c>
       <c r="J883" s="1"/>
     </row>
-    <row r="884" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A884" s="1" t="s">
         <v>1200</v>
       </c>
@@ -31311,7 +31311,7 @@
       </c>
       <c r="J884" s="1"/>
     </row>
-    <row r="885" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A885" s="1" t="s">
         <v>1201</v>
       </c>
@@ -31341,7 +31341,7 @@
       </c>
       <c r="J885" s="1"/>
     </row>
-    <row r="886" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A886" s="1" t="s">
         <v>1202</v>
       </c>
@@ -31371,7 +31371,7 @@
       </c>
       <c r="J886" s="1"/>
     </row>
-    <row r="887" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A887" s="1" t="s">
         <v>1203</v>
       </c>
@@ -31401,7 +31401,7 @@
       </c>
       <c r="J887" s="1"/>
     </row>
-    <row r="888" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A888" s="1" t="s">
         <v>1204</v>
       </c>
@@ -31431,7 +31431,7 @@
       </c>
       <c r="J888" s="1"/>
     </row>
-    <row r="889" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A889" s="1" t="s">
         <v>1205</v>
       </c>
@@ -31461,7 +31461,7 @@
       </c>
       <c r="J889" s="1"/>
     </row>
-    <row r="890" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A890" s="1" t="s">
         <v>1206</v>
       </c>
@@ -31491,7 +31491,7 @@
       </c>
       <c r="J890" s="1"/>
     </row>
-    <row r="891" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A891" s="1" t="s">
         <v>1207</v>
       </c>
@@ -31521,7 +31521,7 @@
       </c>
       <c r="J891" s="1"/>
     </row>
-    <row r="892" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A892" s="1" t="s">
         <v>1208</v>
       </c>
@@ -31551,7 +31551,7 @@
       </c>
       <c r="J892" s="1"/>
     </row>
-    <row r="893" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A893" s="1" t="s">
         <v>1209</v>
       </c>
@@ -31581,7 +31581,7 @@
       </c>
       <c r="J893" s="1"/>
     </row>
-    <row r="894" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A894" s="1" t="s">
         <v>1210</v>
       </c>
@@ -31611,7 +31611,7 @@
       </c>
       <c r="J894" s="1"/>
     </row>
-    <row r="895" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A895" s="1" t="s">
         <v>1211</v>
       </c>
@@ -31641,7 +31641,7 @@
       </c>
       <c r="J895" s="1"/>
     </row>
-    <row r="896" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A896" s="1" t="s">
         <v>1212</v>
       </c>
@@ -31671,7 +31671,7 @@
       </c>
       <c r="J896" s="1"/>
     </row>
-    <row r="897" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A897" s="1" t="s">
         <v>1213</v>
       </c>
@@ -31701,7 +31701,7 @@
       </c>
       <c r="J897" s="1"/>
     </row>
-    <row r="898" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A898" s="1" t="s">
         <v>1214</v>
       </c>
@@ -31731,7 +31731,7 @@
       </c>
       <c r="J898" s="1"/>
     </row>
-    <row r="899" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A899" s="1" t="s">
         <v>1215</v>
       </c>
@@ -31761,7 +31761,7 @@
       </c>
       <c r="J899" s="1"/>
     </row>
-    <row r="900" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A900" s="1" t="s">
         <v>1216</v>
       </c>
@@ -31791,7 +31791,7 @@
       </c>
       <c r="J900" s="1"/>
     </row>
-    <row r="901" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A901" s="1" t="s">
         <v>1223</v>
       </c>
@@ -31821,7 +31821,7 @@
       </c>
       <c r="J901" s="1"/>
     </row>
-    <row r="902" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A902" s="1" t="s">
         <v>1224</v>
       </c>
@@ -31851,7 +31851,7 @@
       </c>
       <c r="J902" s="1"/>
     </row>
-    <row r="903" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A903" s="1" t="s">
         <v>1225</v>
       </c>
@@ -31881,7 +31881,7 @@
       </c>
       <c r="J903" s="1"/>
     </row>
-    <row r="904" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A904" s="1" t="s">
         <v>1226</v>
       </c>
@@ -31911,7 +31911,7 @@
       </c>
       <c r="J904" s="1"/>
     </row>
-    <row r="905" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A905" s="1" t="s">
         <v>1227</v>
       </c>
@@ -31941,7 +31941,7 @@
       </c>
       <c r="J905" s="1"/>
     </row>
-    <row r="906" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A906" s="1" t="s">
         <v>1228</v>
       </c>
@@ -31971,7 +31971,7 @@
       </c>
       <c r="J906" s="1"/>
     </row>
-    <row r="907" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A907" s="1" t="s">
         <v>1229</v>
       </c>
@@ -32001,7 +32001,7 @@
       </c>
       <c r="J907" s="1"/>
     </row>
-    <row r="908" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A908" s="1" t="s">
         <v>1230</v>
       </c>
@@ -32031,7 +32031,7 @@
       </c>
       <c r="J908" s="1"/>
     </row>
-    <row r="909" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A909" s="1" t="s">
         <v>1231</v>
       </c>
@@ -32061,7 +32061,7 @@
       </c>
       <c r="J909" s="1"/>
     </row>
-    <row r="910" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A910" s="1" t="s">
         <v>1232</v>
       </c>
@@ -32091,7 +32091,7 @@
       </c>
       <c r="J910" s="1"/>
     </row>
-    <row r="911" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A911" s="1" t="s">
         <v>1233</v>
       </c>
@@ -32121,7 +32121,7 @@
       </c>
       <c r="J911" s="1"/>
     </row>
-    <row r="912" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A912" s="1" t="s">
         <v>1234</v>
       </c>
@@ -32151,7 +32151,7 @@
       </c>
       <c r="J912" s="1"/>
     </row>
-    <row r="913" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A913" s="1" t="s">
         <v>1235</v>
       </c>
@@ -32181,7 +32181,7 @@
       </c>
       <c r="J913" s="1"/>
     </row>
-    <row r="914" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A914" s="1" t="s">
         <v>1236</v>
       </c>
@@ -32211,7 +32211,7 @@
       </c>
       <c r="J914" s="1"/>
     </row>
-    <row r="915" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A915" s="1" t="s">
         <v>1237</v>
       </c>
@@ -32241,7 +32241,7 @@
       </c>
       <c r="J915" s="1"/>
     </row>
-    <row r="916" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A916" s="1" t="s">
         <v>1238</v>
       </c>
@@ -32271,7 +32271,7 @@
       </c>
       <c r="J916" s="1"/>
     </row>
-    <row r="917" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A917" s="1" t="s">
         <v>1239</v>
       </c>
@@ -32301,7 +32301,7 @@
       </c>
       <c r="J917" s="1"/>
     </row>
-    <row r="918" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A918" s="1" t="s">
         <v>1240</v>
       </c>
@@ -32331,7 +32331,7 @@
       </c>
       <c r="J918" s="1"/>
     </row>
-    <row r="919" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A919" s="1" t="s">
         <v>1241</v>
       </c>
@@ -32361,7 +32361,7 @@
       </c>
       <c r="J919" s="1"/>
     </row>
-    <row r="920" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A920" s="1" t="s">
         <v>1242</v>
       </c>
@@ -32391,7 +32391,7 @@
       </c>
       <c r="J920" s="1"/>
     </row>
-    <row r="921" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A921" s="1" t="s">
         <v>1243</v>
       </c>
@@ -32421,7 +32421,7 @@
       </c>
       <c r="J921" s="1"/>
     </row>
-    <row r="922" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A922" s="1" t="s">
         <v>1244</v>
       </c>
@@ -32451,7 +32451,7 @@
       </c>
       <c r="J922" s="1"/>
     </row>
-    <row r="923" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A923" s="1" t="s">
         <v>1245</v>
       </c>
@@ -32481,7 +32481,7 @@
       </c>
       <c r="J923" s="1"/>
     </row>
-    <row r="924" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A924" s="1" t="s">
         <v>1246</v>
       </c>
@@ -32511,7 +32511,7 @@
       </c>
       <c r="J924" s="1"/>
     </row>
-    <row r="925" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A925" s="1" t="s">
         <v>477</v>
       </c>
@@ -32521,12 +32521,8 @@
       <c r="C925" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D925" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E925" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D925" s="1"/>
+      <c r="E925" s="1"/>
       <c r="F925" s="1">
         <v>160</v>
       </c>
@@ -32541,7 +32537,7 @@
       </c>
       <c r="J925" s="1"/>
     </row>
-    <row r="926" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A926" s="1" t="s">
         <v>741</v>
       </c>
@@ -32551,12 +32547,8 @@
       <c r="C926" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D926" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E926" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D926" s="1"/>
+      <c r="E926" s="1"/>
       <c r="F926" s="1">
         <v>105</v>
       </c>
@@ -32571,7 +32563,7 @@
       </c>
       <c r="J926" s="1"/>
     </row>
-    <row r="927" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A927" s="1" t="s">
         <v>742</v>
       </c>
@@ -32581,12 +32573,8 @@
       <c r="C927" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D927" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E927" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D927" s="1"/>
+      <c r="E927" s="1"/>
       <c r="F927" s="1">
         <v>148</v>
       </c>
@@ -32601,7 +32589,7 @@
       </c>
       <c r="J927" s="1"/>
     </row>
-    <row r="928" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A928" s="1" t="s">
         <v>743</v>
       </c>
@@ -32611,12 +32599,8 @@
       <c r="C928" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D928" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E928" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D928" s="1"/>
+      <c r="E928" s="1"/>
       <c r="F928" s="1">
         <v>210</v>
       </c>
@@ -32631,7 +32615,7 @@
       </c>
       <c r="J928" s="1"/>
     </row>
-    <row r="929" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A929" s="1" t="s">
         <v>480</v>
       </c>
@@ -32641,12 +32625,8 @@
       <c r="C929" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D929" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E929" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D929" s="1"/>
+      <c r="E929" s="1"/>
       <c r="F929" s="1">
         <v>160</v>
       </c>
@@ -32661,7 +32641,7 @@
       </c>
       <c r="J929" s="1"/>
     </row>
-    <row r="930" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A930" s="1" t="s">
         <v>744</v>
       </c>
@@ -32671,12 +32651,8 @@
       <c r="C930" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D930" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E930" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D930" s="1"/>
+      <c r="E930" s="1"/>
       <c r="F930" s="1">
         <v>105</v>
       </c>
@@ -32691,7 +32667,7 @@
       </c>
       <c r="J930" s="1"/>
     </row>
-    <row r="931" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A931" s="1" t="s">
         <v>745</v>
       </c>
@@ -32701,12 +32677,8 @@
       <c r="C931" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D931" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E931" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D931" s="1"/>
+      <c r="E931" s="1"/>
       <c r="F931" s="1">
         <v>148</v>
       </c>
@@ -32721,7 +32693,7 @@
       </c>
       <c r="J931" s="1"/>
     </row>
-    <row r="932" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A932" s="1" t="s">
         <v>746</v>
       </c>
@@ -32731,12 +32703,8 @@
       <c r="C932" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D932" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E932" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D932" s="1"/>
+      <c r="E932" s="1"/>
       <c r="F932" s="1">
         <v>210</v>
       </c>
@@ -32751,7 +32719,7 @@
       </c>
       <c r="J932" s="1"/>
     </row>
-    <row r="933" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A933" s="1" t="s">
         <v>481</v>
       </c>
@@ -32761,12 +32729,8 @@
       <c r="C933" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D933" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E933" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D933" s="1"/>
+      <c r="E933" s="1"/>
       <c r="F933" s="1">
         <v>160</v>
       </c>
@@ -32781,7 +32745,7 @@
       </c>
       <c r="J933" s="1"/>
     </row>
-    <row r="934" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A934" s="1" t="s">
         <v>483</v>
       </c>
@@ -32791,12 +32755,8 @@
       <c r="C934" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D934" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E934" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D934" s="1"/>
+      <c r="E934" s="1"/>
       <c r="F934" s="1">
         <v>160</v>
       </c>
@@ -32811,7 +32771,7 @@
       </c>
       <c r="J934" s="1"/>
     </row>
-    <row r="935" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A935" s="1" t="s">
         <v>484</v>
       </c>
@@ -32821,12 +32781,8 @@
       <c r="C935" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D935" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E935" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D935" s="1"/>
+      <c r="E935" s="1"/>
       <c r="F935" s="1">
         <v>320</v>
       </c>
@@ -32841,7 +32797,7 @@
       </c>
       <c r="J935" s="1"/>
     </row>
-    <row r="936" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A936" s="1" t="s">
         <v>486</v>
       </c>
@@ -32851,12 +32807,8 @@
       <c r="C936" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D936" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E936" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D936" s="1"/>
+      <c r="E936" s="1"/>
       <c r="F936" s="1">
         <v>320</v>
       </c>
@@ -32871,7 +32823,7 @@
       </c>
       <c r="J936" s="1"/>
     </row>
-    <row r="937" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A937" s="1" t="s">
         <v>487</v>
       </c>
@@ -32881,12 +32833,8 @@
       <c r="C937" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D937" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E937" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D937" s="1"/>
+      <c r="E937" s="1"/>
       <c r="F937" s="1">
         <v>160</v>
       </c>
@@ -32901,7 +32849,7 @@
       </c>
       <c r="J937" s="1"/>
     </row>
-    <row r="938" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A938" s="1" t="s">
         <v>489</v>
       </c>
@@ -32911,12 +32859,8 @@
       <c r="C938" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D938" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E938" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D938" s="1"/>
+      <c r="E938" s="1"/>
       <c r="F938" s="1">
         <v>160</v>
       </c>
@@ -32931,7 +32875,7 @@
       </c>
       <c r="J938" s="1"/>
     </row>
-    <row r="939" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A939" s="1" t="s">
         <v>490</v>
       </c>
@@ -32941,12 +32885,8 @@
       <c r="C939" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D939" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E939" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D939" s="1"/>
+      <c r="E939" s="1"/>
       <c r="F939" s="1">
         <v>160</v>
       </c>
@@ -32961,7 +32901,7 @@
       </c>
       <c r="J939" s="1"/>
     </row>
-    <row r="940" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A940" s="1" t="s">
         <v>492</v>
       </c>
@@ -32971,12 +32911,8 @@
       <c r="C940" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D940" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E940" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D940" s="1"/>
+      <c r="E940" s="1"/>
       <c r="F940" s="1">
         <v>160</v>
       </c>
@@ -33006,7 +32942,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
